--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_9_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_9_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1546931.367297875</v>
+        <v>1544634.503482388</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5648925.111355034</v>
+        <v>5648925.111355027</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673423</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>183.4693513325745</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776604</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>14.47942859368512</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776604</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776604</v>
       </c>
     </row>
     <row r="3">
@@ -738,10 +738,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -753,10 +753,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>192.7339396976112</v>
+        <v>174.3702863852168</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -823,13 +823,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -941,7 +941,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>183.4693513325733</v>
       </c>
       <c r="X5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
-        <v>48.83589518354175</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -975,13 +975,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>57.86139863536535</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>201.2173864853858</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1063,13 +1063,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1136,13 +1136,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>175.0426595591497</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1178,7 +1178,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
+        <v>18.29749587628852</v>
+      </c>
+      <c r="W8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
         <v>241.0142888776591</v>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>29.1427070647979</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="10">
@@ -1388,7 +1388,7 @@
         <v>299.0656566556569</v>
       </c>
       <c r="I11" t="n">
-        <v>58.35836677280801</v>
+        <v>58.35836677280804</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>97.71153510303041</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>193.1717904191954</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1585,16 +1585,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>151.0988573803723</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>198.8061599220192</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>299.0656566556569</v>
       </c>
       <c r="I14" t="n">
-        <v>58.35836677280801</v>
+        <v>58.35836677280804</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>89.49063860785695</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.2210634283829</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>146.4910108745831</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,16 +1816,16 @@
         <v>193.1717904191954</v>
       </c>
       <c r="T16" t="n">
-        <v>220.3832213634118</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>195.3919881081152</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1862,7 +1862,7 @@
         <v>299.0656566556569</v>
       </c>
       <c r="I17" t="n">
-        <v>58.35836677280801</v>
+        <v>58.35836677280804</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.2210634283829</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>146.4910108745831</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>269.5881111383609</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>127.2325063232454</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2099,7 +2099,7 @@
         <v>299.0656566556569</v>
       </c>
       <c r="I20" t="n">
-        <v>58.35836677280801</v>
+        <v>58.35836677280804</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>13.97770742407835</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.2210634283829</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>146.4910108745831</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>97.71153510303041</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>193.1717904191954</v>
       </c>
       <c r="T22" t="n">
-        <v>165.3535357362638</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2224884875777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G23" t="n">
         <v>411.3570135595525</v>
@@ -2336,7 +2336,7 @@
         <v>299.0656566556569</v>
       </c>
       <c r="I23" t="n">
-        <v>58.35836677280801</v>
+        <v>58.35836677280804</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2372,7 +2372,7 @@
         <v>205.8234429485686</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0299949913902</v>
+        <v>251.0299949913899</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.2210634283829</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>146.4910108745831</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>193.1717904191954</v>
       </c>
       <c r="T25" t="n">
         <v>220.3832213634118</v>
       </c>
       <c r="U25" t="n">
-        <v>7.913359239848528</v>
+        <v>255.9477910520898</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>299.0656566556569</v>
       </c>
       <c r="I26" t="n">
-        <v>58.35836677280801</v>
+        <v>58.35836677280804</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>143.0854811687393</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.2210634283829</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>146.4910108745831</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>102.2242758664309</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,22 +2761,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>193.1717904191954</v>
       </c>
       <c r="T28" t="n">
         <v>220.3832213634118</v>
       </c>
       <c r="U28" t="n">
-        <v>102.0407801907199</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2807,10 +2807,10 @@
         <v>411.3570135595525</v>
       </c>
       <c r="H29" t="n">
-        <v>299.0656566556569</v>
+        <v>299.0656566556621</v>
       </c>
       <c r="I29" t="n">
-        <v>58.35836677280801</v>
+        <v>58.35836677280811</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2849,13 +2849,13 @@
         <v>251.0299949913899</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2950,13 +2950,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>84.35141806537867</v>
       </c>
       <c r="E31" t="n">
-        <v>113.2956954373789</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>146.4910108745831</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>97.71153510303041</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>193.1717904191954</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>220.3832213634118</v>
       </c>
       <c r="U31" t="n">
         <v>286.2224884875777</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3041,13 +3041,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.3570135595523</v>
+        <v>411.3570135595525</v>
       </c>
       <c r="H32" t="n">
         <v>299.0656566556569</v>
       </c>
       <c r="I32" t="n">
-        <v>58.35836677280801</v>
+        <v>58.35836677281403</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.0998663845603</v>
+        <v>155.0998663845609</v>
       </c>
       <c r="C34" t="n">
-        <v>30.22652210208236</v>
+        <v>36.1989148740029</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>123.8833592208359</v>
       </c>
       <c r="E34" t="n">
-        <v>121.7018488491921</v>
+        <v>121.7018488491927</v>
       </c>
       <c r="F34" t="n">
-        <v>120.6889342255542</v>
+        <v>120.6889342255548</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>141.4889496310064</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>77.49216206905388</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,22 +3238,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>195.6511075660348</v>
+        <v>195.6511075660354</v>
       </c>
       <c r="U34" t="n">
-        <v>261.4903746902007</v>
+        <v>261.4903746902012</v>
       </c>
       <c r="V34" t="n">
-        <v>227.405529526451</v>
+        <v>227.4055295264516</v>
       </c>
       <c r="W34" t="n">
-        <v>261.790884539214</v>
+        <v>261.7908845392146</v>
       </c>
       <c r="X34" t="n">
-        <v>200.9775415916601</v>
+        <v>200.9775415916607</v>
       </c>
       <c r="Y34" t="n">
-        <v>193.8525395547178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>326.9273306539426</v>
       </c>
       <c r="C35" t="n">
-        <v>309.4663807614695</v>
+        <v>309.4663807614696</v>
       </c>
       <c r="D35" t="n">
         <v>298.876530611145</v>
@@ -3281,10 +3281,10 @@
         <v>355.5505025500145</v>
       </c>
       <c r="H35" t="n">
-        <v>243.2591456461189</v>
+        <v>243.259145646119</v>
       </c>
       <c r="I35" t="n">
-        <v>2.551855763269998</v>
+        <v>2.551855763270055</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>63.300373938869</v>
+        <v>63.30037393886904</v>
       </c>
       <c r="T35" t="n">
-        <v>150.0169319390305</v>
+        <v>150.0169319390306</v>
       </c>
       <c r="U35" t="n">
         <v>195.2234839818519</v>
@@ -3332,7 +3332,7 @@
         <v>313.924589668931</v>
       </c>
       <c r="Y35" t="n">
-        <v>330.4314276465155</v>
+        <v>330.4314276465156</v>
       </c>
     </row>
     <row r="36">
@@ -3427,22 +3427,22 @@
         <v>111.4403100890898</v>
       </c>
       <c r="D37" t="n">
-        <v>92.80896200867434</v>
+        <v>92.80896200867437</v>
       </c>
       <c r="E37" t="n">
-        <v>90.62745163703116</v>
+        <v>90.62745163703119</v>
       </c>
       <c r="F37" t="n">
-        <v>89.61453701339323</v>
+        <v>89.61453701339326</v>
       </c>
       <c r="G37" t="n">
         <v>110.4145524188449</v>
       </c>
       <c r="H37" t="n">
-        <v>90.6844998650451</v>
+        <v>90.68449986504513</v>
       </c>
       <c r="I37" t="n">
-        <v>46.41776485689289</v>
+        <v>46.41776485689293</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.9050240934924</v>
+        <v>41.90502409349243</v>
       </c>
       <c r="S37" t="n">
-        <v>137.3652794096573</v>
+        <v>137.3652794096574</v>
       </c>
       <c r="T37" t="n">
         <v>164.5767103538738</v>
@@ -3487,7 +3487,7 @@
         <v>230.716487327053</v>
       </c>
       <c r="X37" t="n">
-        <v>169.9031443794991</v>
+        <v>169.9031443794992</v>
       </c>
       <c r="Y37" t="n">
         <v>162.7781423425568</v>
@@ -3515,13 +3515,13 @@
         <v>351.0695347321735</v>
       </c>
       <c r="G38" t="n">
-        <v>355.5505025500142</v>
+        <v>355.550502550015</v>
       </c>
       <c r="H38" t="n">
         <v>243.259145646119</v>
       </c>
       <c r="I38" t="n">
-        <v>2.551855763270027</v>
+        <v>2.551855763270055</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>63.300373938869</v>
+        <v>63.30037393886904</v>
       </c>
       <c r="T38" t="n">
         <v>150.0169319390306</v>
@@ -3664,22 +3664,22 @@
         <v>111.4403100890898</v>
       </c>
       <c r="D40" t="n">
-        <v>92.80896200867436</v>
+        <v>92.80896200867437</v>
       </c>
       <c r="E40" t="n">
-        <v>90.62745163703127</v>
+        <v>90.62745163703119</v>
       </c>
       <c r="F40" t="n">
-        <v>89.61453701339325</v>
+        <v>89.61453701339326</v>
       </c>
       <c r="G40" t="n">
         <v>110.4145524188449</v>
       </c>
       <c r="H40" t="n">
-        <v>90.68449986504511</v>
+        <v>90.68449986504513</v>
       </c>
       <c r="I40" t="n">
-        <v>46.41776485689291</v>
+        <v>46.41776485689293</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.90502409349241</v>
+        <v>41.90502409349243</v>
       </c>
       <c r="S40" t="n">
         <v>137.3652794096574</v>
@@ -3727,7 +3727,7 @@
         <v>169.9031443794992</v>
       </c>
       <c r="Y40" t="n">
-        <v>162.7781423425568</v>
+        <v>162.7781423425562</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>243.259145646119</v>
       </c>
       <c r="I41" t="n">
-        <v>2.551855763270041</v>
+        <v>2.551855763270034</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>63.30037393886901</v>
+        <v>63.30037393886903</v>
       </c>
       <c r="T41" t="n">
         <v>150.0169319390306</v>
@@ -3834,10 +3834,10 @@
         <v>135.2323687279194</v>
       </c>
       <c r="H42" t="n">
-        <v>91.84619487460519</v>
+        <v>91.84619487460517</v>
       </c>
       <c r="I42" t="n">
-        <v>16.71016260125771</v>
+        <v>16.71016260125769</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3901,19 +3901,19 @@
         <v>111.4403100890898</v>
       </c>
       <c r="D43" t="n">
-        <v>92.80896200867436</v>
+        <v>92.80896200867437</v>
       </c>
       <c r="E43" t="n">
-        <v>90.62745163703117</v>
+        <v>90.62745163703119</v>
       </c>
       <c r="F43" t="n">
-        <v>89.61453701339325</v>
+        <v>89.61453701339326</v>
       </c>
       <c r="G43" t="n">
         <v>110.4145524188449</v>
       </c>
       <c r="H43" t="n">
-        <v>90.68449986504511</v>
+        <v>90.68449986504513</v>
       </c>
       <c r="I43" t="n">
         <v>46.41776485689292</v>
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>326.9273306539426</v>
+        <v>326.9273306539425</v>
       </c>
       <c r="C44" t="n">
-        <v>309.4663807614696</v>
+        <v>309.4663807614695</v>
       </c>
       <c r="D44" t="n">
-        <v>298.876530611145</v>
+        <v>298.8765306111449</v>
       </c>
       <c r="E44" t="n">
-        <v>326.1238590627238</v>
+        <v>326.1238590627237</v>
       </c>
       <c r="F44" t="n">
-        <v>351.0695347321735</v>
+        <v>351.0695347321734</v>
       </c>
       <c r="G44" t="n">
-        <v>355.5505025500145</v>
+        <v>355.5505025500144</v>
       </c>
       <c r="H44" t="n">
-        <v>243.259145646119</v>
+        <v>243.2591456461189</v>
       </c>
       <c r="I44" t="n">
-        <v>2.551855763270012</v>
+        <v>2.551855763269991</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>63.300373938869</v>
+        <v>63.30037393886899</v>
       </c>
       <c r="T44" t="n">
-        <v>150.0169319390306</v>
+        <v>150.0169319390305</v>
       </c>
       <c r="U44" t="n">
-        <v>195.2234839818519</v>
+        <v>195.2234839818518</v>
       </c>
       <c r="V44" t="n">
         <v>271.9457474605969</v>
@@ -4043,7 +4043,7 @@
         <v>313.924589668931</v>
       </c>
       <c r="Y44" t="n">
-        <v>330.4314276465156</v>
+        <v>330.4314276465155</v>
       </c>
     </row>
     <row r="45">
@@ -4138,22 +4138,22 @@
         <v>111.4403100890898</v>
       </c>
       <c r="D46" t="n">
-        <v>92.80896200867436</v>
+        <v>92.80896200867431</v>
       </c>
       <c r="E46" t="n">
-        <v>90.62745163703117</v>
+        <v>90.62745163703113</v>
       </c>
       <c r="F46" t="n">
-        <v>89.61453701339325</v>
+        <v>89.6145370133932</v>
       </c>
       <c r="G46" t="n">
-        <v>110.4145524188449</v>
+        <v>110.4145524188448</v>
       </c>
       <c r="H46" t="n">
-        <v>90.68449986504511</v>
+        <v>90.68449986504507</v>
       </c>
       <c r="I46" t="n">
-        <v>46.41776485689291</v>
+        <v>46.41776485689287</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.90502409349241</v>
+        <v>41.90502409349413</v>
       </c>
       <c r="S46" t="n">
-        <v>137.3652794096574</v>
+        <v>137.3652794096573</v>
       </c>
       <c r="T46" t="n">
         <v>164.5767103538738</v>
       </c>
       <c r="U46" t="n">
-        <v>230.4159774780397</v>
+        <v>230.4159774780396</v>
       </c>
       <c r="V46" t="n">
         <v>196.33113231429</v>
@@ -4198,10 +4198,10 @@
         <v>230.716487327053</v>
       </c>
       <c r="X46" t="n">
-        <v>169.9031443794992</v>
+        <v>169.9031443794991</v>
       </c>
       <c r="Y46" t="n">
-        <v>162.7781423425568</v>
+        <v>162.7781423425567</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274.0360370837871</v>
+        <v>710.5167634983131</v>
       </c>
       <c r="C2" t="n">
-        <v>274.0360370837871</v>
+        <v>525.1941863947026</v>
       </c>
       <c r="D2" t="n">
-        <v>274.0360370837871</v>
+        <v>281.7454097506011</v>
       </c>
       <c r="E2" t="n">
-        <v>274.0360370837871</v>
+        <v>281.7454097506011</v>
       </c>
       <c r="F2" t="n">
-        <v>259.4103516356203</v>
+        <v>274.7999090013976</v>
       </c>
       <c r="G2" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729619</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729619</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>31.35113235729619</v>
       </c>
       <c r="J2" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021283</v>
       </c>
       <c r="K2" t="n">
-        <v>122.2961490211351</v>
+        <v>122.2961490211406</v>
       </c>
       <c r="L2" t="n">
-        <v>302.3720006057937</v>
+        <v>302.3720006057991</v>
       </c>
       <c r="M2" t="n">
-        <v>519.3476278686978</v>
+        <v>519.3476278687033</v>
       </c>
       <c r="N2" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759427</v>
       </c>
       <c r="O2" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185907</v>
       </c>
       <c r="P2" t="n">
-        <v>964.0571555106362</v>
+        <v>964.0571555106417</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>953.9655401424146</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>953.9655401424146</v>
       </c>
       <c r="S2" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424146</v>
       </c>
       <c r="T2" t="n">
-        <v>517.4848137278872</v>
+        <v>953.9655401424146</v>
       </c>
       <c r="U2" t="n">
-        <v>517.4848137278872</v>
+        <v>953.9655401424146</v>
       </c>
       <c r="V2" t="n">
-        <v>517.4848137278872</v>
+        <v>953.9655401424146</v>
       </c>
       <c r="W2" t="n">
-        <v>517.4848137278872</v>
+        <v>953.9655401424146</v>
       </c>
       <c r="X2" t="n">
-        <v>274.0360370837871</v>
+        <v>953.9655401424146</v>
       </c>
       <c r="Y2" t="n">
-        <v>274.0360370837871</v>
+        <v>710.5167634983131</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>668.2068788942177</v>
+        <v>787.9255531013317</v>
       </c>
       <c r="C3" t="n">
-        <v>668.2068788942177</v>
+        <v>613.4725238202047</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>464.5381141589535</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>305.300659153498</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>158.766101180383</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299855</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299855</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299855</v>
       </c>
       <c r="J3" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021283</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021283</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>249.244248978562</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674458</v>
       </c>
       <c r="N3" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563296</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106417</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>964.0571555106417</v>
       </c>
       <c r="Q3" t="n">
-        <v>964.0571555106362</v>
+        <v>964.0571555106417</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106417</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106417</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106417</v>
       </c>
       <c r="U3" t="n">
-        <v>668.2068788942177</v>
+        <v>787.9255531013317</v>
       </c>
       <c r="V3" t="n">
-        <v>668.2068788942177</v>
+        <v>787.9255531013317</v>
       </c>
       <c r="W3" t="n">
-        <v>668.2068788942177</v>
+        <v>787.9255531013317</v>
       </c>
       <c r="X3" t="n">
-        <v>668.2068788942177</v>
+        <v>787.9255531013317</v>
       </c>
       <c r="Y3" t="n">
-        <v>668.2068788942177</v>
+        <v>787.9255531013317</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.0645035650224</v>
+        <v>151.0645035650225</v>
       </c>
       <c r="C4" t="n">
-        <v>151.0645035650224</v>
+        <v>151.0645035650225</v>
       </c>
       <c r="D4" t="n">
-        <v>151.0645035650224</v>
+        <v>151.0645035650225</v>
       </c>
       <c r="E4" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797329</v>
       </c>
       <c r="F4" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797329</v>
       </c>
       <c r="G4" t="n">
-        <v>41.77557929797318</v>
+        <v>41.77557929797329</v>
       </c>
       <c r="H4" t="n">
-        <v>41.77557929797318</v>
+        <v>41.77557929797329</v>
       </c>
       <c r="I4" t="n">
-        <v>41.77557929797318</v>
+        <v>41.77557929797329</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>41.77557929797329</v>
       </c>
       <c r="K4" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021283</v>
       </c>
       <c r="L4" t="n">
-        <v>46.5952681179257</v>
+        <v>46.59526811792581</v>
       </c>
       <c r="M4" t="n">
-        <v>85.78330631014788</v>
+        <v>85.78330631014799</v>
       </c>
       <c r="N4" t="n">
-        <v>129.4741569655842</v>
+        <v>129.4741569655843</v>
       </c>
       <c r="O4" t="n">
-        <v>153.8134336004835</v>
+        <v>153.8134336004836</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>151.0645035650225</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>151.0645035650225</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>151.0645035650225</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>151.0645035650225</v>
       </c>
       <c r="T4" t="n">
-        <v>151.0645035650224</v>
+        <v>151.0645035650225</v>
       </c>
       <c r="U4" t="n">
-        <v>151.0645035650224</v>
+        <v>151.0645035650225</v>
       </c>
       <c r="V4" t="n">
-        <v>151.0645035650224</v>
+        <v>151.0645035650225</v>
       </c>
       <c r="W4" t="n">
-        <v>151.0645035650224</v>
+        <v>151.0645035650225</v>
       </c>
       <c r="X4" t="n">
-        <v>151.0645035650224</v>
+        <v>151.0645035650225</v>
       </c>
       <c r="Y4" t="n">
-        <v>151.0645035650224</v>
+        <v>151.0645035650225</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>266.3558523848238</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="C5" t="n">
-        <v>266.3558523848238</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="D5" t="n">
-        <v>266.3558523848238</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="E5" t="n">
-        <v>266.3558523848238</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="F5" t="n">
-        <v>259.4103516356203</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G5" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4589,28 +4589,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>559.1338160830064</v>
+        <v>768.6429630387997</v>
       </c>
       <c r="X5" t="n">
-        <v>315.6850394389064</v>
+        <v>525.1941863946997</v>
       </c>
       <c r="Y5" t="n">
-        <v>266.3558523848238</v>
+        <v>281.7454097505996</v>
       </c>
     </row>
     <row r="6">
@@ -4620,13 +4620,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>284.0338015341832</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="C6" t="n">
-        <v>109.5807722530562</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="D6" t="n">
-        <v>109.5807722530562</v>
+        <v>268.8182272585117</v>
       </c>
       <c r="E6" t="n">
         <v>109.5807722530562</v>
@@ -4647,49 +4647,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N6" t="n">
-        <v>613.2059550252818</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U6" t="n">
-        <v>284.0338015341832</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V6" t="n">
-        <v>284.0338015341832</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W6" t="n">
-        <v>284.0338015341832</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="X6" t="n">
-        <v>284.0338015341832</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="Y6" t="n">
-        <v>284.0338015341832</v>
+        <v>327.2640844659515</v>
       </c>
     </row>
     <row r="7">
@@ -4711,19 +4711,19 @@
         <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>467.067986854209</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C8" t="n">
-        <v>467.067986854209</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D8" t="n">
-        <v>223.6192102101089</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E8" t="n">
-        <v>223.6192102101089</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F8" t="n">
         <v>46.80844297864461</v>
@@ -4826,28 +4826,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>710.516763498309</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="W8" t="n">
-        <v>710.516763498309</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="X8" t="n">
-        <v>710.516763498309</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="Y8" t="n">
-        <v>467.067986854209</v>
+        <v>53.75394372784808</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>49.47235360622864</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>49.47235360622864</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>49.47235360622864</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>49.47235360622864</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>49.47235360622864</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
         <v>20.03527576299844</v>
@@ -4890,7 +4890,7 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N9" t="n">
         <v>725.4530095217538</v>
@@ -4923,10 +4923,10 @@
         <v>257.2326523711826</v>
       </c>
       <c r="X9" t="n">
-        <v>257.2326523711826</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y9" t="n">
-        <v>49.47235360622864</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2396.801190285673</v>
+        <v>2396.801190285672</v>
       </c>
       <c r="C11" t="n">
         <v>2027.838673345261</v>
       </c>
       <c r="D11" t="n">
-        <v>1669.572974738511</v>
+        <v>1669.57297473851</v>
       </c>
       <c r="E11" t="n">
         <v>1283.784722140266</v>
       </c>
       <c r="F11" t="n">
-        <v>872.798817350659</v>
+        <v>872.7988173506582</v>
       </c>
       <c r="G11" t="n">
-        <v>457.2866824420201</v>
+        <v>457.2866824420193</v>
       </c>
       <c r="H11" t="n">
         <v>155.2001605676189</v>
@@ -5039,28 +5039,28 @@
         <v>96.25231534256025</v>
       </c>
       <c r="J11" t="n">
-        <v>415.9620235708707</v>
+        <v>248.5563745505175</v>
       </c>
       <c r="K11" t="n">
-        <v>1015.868804260583</v>
+        <v>527.5591967947764</v>
       </c>
       <c r="L11" t="n">
-        <v>1398.898238229689</v>
+        <v>1324.073233168829</v>
       </c>
       <c r="M11" t="n">
-        <v>2301.780120993128</v>
+        <v>2007.123859158069</v>
       </c>
       <c r="N11" t="n">
-        <v>2844.9240614985</v>
+        <v>2909.983317172754</v>
       </c>
       <c r="O11" t="n">
-        <v>3652.281007791103</v>
+        <v>3717.340263465356</v>
       </c>
       <c r="P11" t="n">
-        <v>4303.667099681198</v>
+        <v>4368.726355355451</v>
       </c>
       <c r="Q11" t="n">
-        <v>4715.609167289134</v>
+        <v>4780.668422963387</v>
       </c>
       <c r="R11" t="n">
         <v>4812.615767128013</v>
@@ -5069,22 +5069,22 @@
         <v>4692.305782331641</v>
       </c>
       <c r="T11" t="n">
-        <v>4484.403314706825</v>
+        <v>4484.403314706824</v>
       </c>
       <c r="U11" t="n">
         <v>4230.837663200371</v>
       </c>
       <c r="V11" t="n">
-        <v>3899.774775856801</v>
+        <v>3899.7747758568</v>
       </c>
       <c r="W11" t="n">
         <v>3547.006120586686</v>
       </c>
       <c r="X11" t="n">
-        <v>3173.540362325607</v>
+        <v>3173.540362325606</v>
       </c>
       <c r="Y11" t="n">
-        <v>2783.401030349795</v>
+        <v>2783.401030349794</v>
       </c>
     </row>
     <row r="12">
@@ -5118,28 +5118,28 @@
         <v>96.25231534256025</v>
       </c>
       <c r="J12" t="n">
-        <v>237.0713536212372</v>
+        <v>292.9758476495718</v>
       </c>
       <c r="K12" t="n">
-        <v>699.9240471119464</v>
+        <v>494.0079564978282</v>
       </c>
       <c r="L12" t="n">
-        <v>1016.559067516712</v>
+        <v>810.6429769025935</v>
       </c>
       <c r="M12" t="n">
-        <v>1405.414069792267</v>
+        <v>1199.497979178149</v>
       </c>
       <c r="N12" t="n">
-        <v>1818.969551819632</v>
+        <v>1613.053461205514</v>
       </c>
       <c r="O12" t="n">
-        <v>2175.072228054496</v>
+        <v>1969.156137440378</v>
       </c>
       <c r="P12" t="n">
-        <v>2441.5429540562</v>
+        <v>2264.17581091941</v>
       </c>
       <c r="Q12" t="n">
-        <v>2569.752381132564</v>
+        <v>2600.361752854265</v>
       </c>
       <c r="R12" t="n">
         <v>2600.361752854265</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>834.4327641165371</v>
+        <v>982.3458576989302</v>
       </c>
       <c r="C13" t="n">
-        <v>665.4965811886302</v>
+        <v>813.4096747710234</v>
       </c>
       <c r="D13" t="n">
-        <v>515.3799417762945</v>
+        <v>663.2930353586877</v>
       </c>
       <c r="E13" t="n">
-        <v>515.3799417762945</v>
+        <v>515.3799417762946</v>
       </c>
       <c r="F13" t="n">
-        <v>515.3799417762945</v>
+        <v>515.3799417762946</v>
       </c>
       <c r="G13" t="n">
-        <v>347.4798777072208</v>
+        <v>347.479877707221</v>
       </c>
       <c r="H13" t="n">
-        <v>199.5091596520863</v>
+        <v>199.5091596520865</v>
       </c>
       <c r="I13" t="n">
         <v>96.25231534256025</v>
@@ -5200,7 +5200,7 @@
         <v>127.7084527208552</v>
       </c>
       <c r="K13" t="n">
-        <v>309.2373860905589</v>
+        <v>309.2373860905588</v>
       </c>
       <c r="L13" t="n">
         <v>597.0583571824202</v>
@@ -5221,28 +5221,28 @@
         <v>1765.40156103574</v>
       </c>
       <c r="R13" t="n">
-        <v>1666.703040729649</v>
+        <v>1765.40156103574</v>
       </c>
       <c r="S13" t="n">
-        <v>1471.580020104198</v>
+        <v>1765.40156103574</v>
       </c>
       <c r="T13" t="n">
-        <v>1471.580020104198</v>
+        <v>1765.40156103574</v>
       </c>
       <c r="U13" t="n">
-        <v>1471.580020104198</v>
+        <v>1765.40156103574</v>
       </c>
       <c r="V13" t="n">
-        <v>1216.895531898311</v>
+        <v>1765.40156103574</v>
       </c>
       <c r="W13" t="n">
-        <v>1216.895531898311</v>
+        <v>1612.776452570718</v>
       </c>
       <c r="X13" t="n">
-        <v>1216.895531898311</v>
+        <v>1384.7869016727</v>
       </c>
       <c r="Y13" t="n">
-        <v>1016.081228946777</v>
+        <v>1163.99432252917</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2396.801190285673</v>
+        <v>2396.801190285672</v>
       </c>
       <c r="C14" t="n">
         <v>2027.838673345261</v>
       </c>
       <c r="D14" t="n">
-        <v>1669.572974738511</v>
+        <v>1669.57297473851</v>
       </c>
       <c r="E14" t="n">
         <v>1283.784722140266</v>
       </c>
       <c r="F14" t="n">
-        <v>872.7988173506587</v>
+        <v>872.7988173506582</v>
       </c>
       <c r="G14" t="n">
-        <v>457.2866824420199</v>
+        <v>457.2866824420193</v>
       </c>
       <c r="H14" t="n">
         <v>155.2001605676189</v>
@@ -5276,25 +5276,25 @@
         <v>96.25231534256025</v>
       </c>
       <c r="J14" t="n">
-        <v>248.5563745505176</v>
+        <v>415.9620235708705</v>
       </c>
       <c r="K14" t="n">
-        <v>848.4631552402298</v>
+        <v>1015.868804260583</v>
       </c>
       <c r="L14" t="n">
-        <v>1644.977191614282</v>
+        <v>1812.382840634635</v>
       </c>
       <c r="M14" t="n">
-        <v>2547.859074377721</v>
+        <v>2715.264723398074</v>
       </c>
       <c r="N14" t="n">
-        <v>3017.745077224542</v>
+        <v>3185.150726244894</v>
       </c>
       <c r="O14" t="n">
-        <v>3825.102023517145</v>
+        <v>3970.861728880871</v>
       </c>
       <c r="P14" t="n">
-        <v>4476.488115407239</v>
+        <v>4303.667099681198</v>
       </c>
       <c r="Q14" t="n">
         <v>4715.609167289134</v>
@@ -5321,7 +5321,7 @@
         <v>3173.540362325606</v>
       </c>
       <c r="Y14" t="n">
-        <v>2783.401030349795</v>
+        <v>2783.401030349794</v>
       </c>
     </row>
     <row r="15">
@@ -5358,25 +5358,25 @@
         <v>292.9758476495718</v>
       </c>
       <c r="K15" t="n">
-        <v>699.9240471119464</v>
+        <v>494.0079564978282</v>
       </c>
       <c r="L15" t="n">
-        <v>1016.559067516712</v>
+        <v>810.6429769025935</v>
       </c>
       <c r="M15" t="n">
-        <v>1405.414069792267</v>
+        <v>1199.497979178149</v>
       </c>
       <c r="N15" t="n">
-        <v>1818.969551819632</v>
+        <v>1613.053461205514</v>
       </c>
       <c r="O15" t="n">
-        <v>2175.072228054496</v>
+        <v>1969.156137440378</v>
       </c>
       <c r="P15" t="n">
-        <v>2441.5429540562</v>
+        <v>2264.17581091941</v>
       </c>
       <c r="Q15" t="n">
-        <v>2569.752381132564</v>
+        <v>2600.361752854265</v>
       </c>
       <c r="R15" t="n">
         <v>2600.361752854265</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>265.1884982704672</v>
+        <v>650.4307755015425</v>
       </c>
       <c r="C16" t="n">
-        <v>96.25231534256025</v>
+        <v>560.0361910491615</v>
       </c>
       <c r="D16" t="n">
-        <v>96.25231534256025</v>
+        <v>560.0361910491615</v>
       </c>
       <c r="E16" t="n">
-        <v>96.25231534256025</v>
+        <v>412.1230974667683</v>
       </c>
       <c r="F16" t="n">
-        <v>96.25231534256025</v>
+        <v>412.1230974667683</v>
       </c>
       <c r="G16" t="n">
-        <v>96.25231534256025</v>
+        <v>244.2230333976947</v>
       </c>
       <c r="H16" t="n">
         <v>96.25231534256025</v>
@@ -5434,10 +5434,10 @@
         <v>96.25231534256025</v>
       </c>
       <c r="J16" t="n">
-        <v>127.7084527208553</v>
+        <v>127.7084527208552</v>
       </c>
       <c r="K16" t="n">
-        <v>309.2373860905589</v>
+        <v>309.2373860905588</v>
       </c>
       <c r="L16" t="n">
         <v>597.0583571824202</v>
@@ -5464,22 +5464,22 @@
         <v>1570.27854041029</v>
       </c>
       <c r="T16" t="n">
-        <v>1347.669225901793</v>
+        <v>1570.27854041029</v>
       </c>
       <c r="U16" t="n">
-        <v>1347.669225901793</v>
+        <v>1570.27854041029</v>
       </c>
       <c r="V16" t="n">
-        <v>1092.984737695906</v>
+        <v>1570.27854041029</v>
       </c>
       <c r="W16" t="n">
-        <v>895.6190931422544</v>
+        <v>1280.86137037333</v>
       </c>
       <c r="X16" t="n">
-        <v>667.6295422442371</v>
+        <v>1052.871819475312</v>
       </c>
       <c r="Y16" t="n">
-        <v>446.8369631007068</v>
+        <v>832.0792403317822</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5492,16 @@
         <v>2396.801190285672</v>
       </c>
       <c r="C17" t="n">
-        <v>2027.838673345261</v>
+        <v>2027.83867334526</v>
       </c>
       <c r="D17" t="n">
-        <v>1669.57297473851</v>
+        <v>1669.572974738511</v>
       </c>
       <c r="E17" t="n">
         <v>1283.784722140266</v>
       </c>
       <c r="F17" t="n">
-        <v>872.7988173506586</v>
+        <v>872.7988173506587</v>
       </c>
       <c r="G17" t="n">
         <v>457.2866824420198</v>
@@ -5513,19 +5513,19 @@
         <v>96.25231534256025</v>
       </c>
       <c r="J17" t="n">
-        <v>415.9620235708707</v>
+        <v>415.9620235708705</v>
       </c>
       <c r="K17" t="n">
-        <v>694.9648458151296</v>
+        <v>1015.868804260583</v>
       </c>
       <c r="L17" t="n">
-        <v>1484.20111887828</v>
+        <v>1812.382840634635</v>
       </c>
       <c r="M17" t="n">
-        <v>1942.064603483815</v>
+        <v>2715.264723398074</v>
       </c>
       <c r="N17" t="n">
-        <v>2844.9240614985</v>
+        <v>3185.150726244894</v>
       </c>
       <c r="O17" t="n">
         <v>3652.281007791103</v>
@@ -5558,7 +5558,7 @@
         <v>3173.540362325605</v>
       </c>
       <c r="Y17" t="n">
-        <v>2783.401030349793</v>
+        <v>2783.401030349794</v>
       </c>
     </row>
     <row r="18">
@@ -5592,28 +5592,28 @@
         <v>96.25231534256025</v>
       </c>
       <c r="J18" t="n">
-        <v>237.0713536212372</v>
+        <v>292.9758476495718</v>
       </c>
       <c r="K18" t="n">
-        <v>699.9240471119464</v>
+        <v>494.0079564978282</v>
       </c>
       <c r="L18" t="n">
-        <v>1016.559067516712</v>
+        <v>810.6429769025935</v>
       </c>
       <c r="M18" t="n">
-        <v>1405.414069792267</v>
+        <v>1199.497979178149</v>
       </c>
       <c r="N18" t="n">
-        <v>1818.969551819632</v>
+        <v>1613.053461205514</v>
       </c>
       <c r="O18" t="n">
-        <v>2175.072228054496</v>
+        <v>1969.156137440378</v>
       </c>
       <c r="P18" t="n">
-        <v>2441.5429540562</v>
+        <v>2472.1523257779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2569.752381132564</v>
+        <v>2600.361752854265</v>
       </c>
       <c r="R18" t="n">
         <v>2600.361752854265</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>581.0592803946753</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="C19" t="n">
-        <v>412.1230974667684</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="D19" t="n">
-        <v>412.1230974667684</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="E19" t="n">
-        <v>412.1230974667684</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="F19" t="n">
-        <v>412.1230974667684</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="G19" t="n">
-        <v>244.2230333976947</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="H19" t="n">
         <v>96.25231534256025</v>
@@ -5674,13 +5674,13 @@
         <v>127.7084527208552</v>
       </c>
       <c r="K19" t="n">
-        <v>309.2373860905588</v>
+        <v>309.2373860905587</v>
       </c>
       <c r="L19" t="n">
         <v>597.0583571824202</v>
       </c>
       <c r="M19" t="n">
-        <v>910.9143388153278</v>
+        <v>910.9143388153277</v>
       </c>
       <c r="N19" t="n">
         <v>1222.74214312947</v>
@@ -5707,16 +5707,16 @@
         <v>1253.678621792316</v>
       </c>
       <c r="V19" t="n">
-        <v>998.9941335864293</v>
+        <v>998.9941335864295</v>
       </c>
       <c r="W19" t="n">
-        <v>709.5769635494686</v>
+        <v>726.6829102143478</v>
       </c>
       <c r="X19" t="n">
-        <v>709.5769635494686</v>
+        <v>498.6933593163304</v>
       </c>
       <c r="Y19" t="n">
-        <v>581.0592803946753</v>
+        <v>277.9007801728</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2396.801190285673</v>
+        <v>2396.801190285672</v>
       </c>
       <c r="C20" t="n">
-        <v>2027.838673345261</v>
+        <v>2027.83867334526</v>
       </c>
       <c r="D20" t="n">
-        <v>1669.572974738511</v>
+        <v>1669.572974738509</v>
       </c>
       <c r="E20" t="n">
-        <v>1283.784722140266</v>
+        <v>1283.784722140265</v>
       </c>
       <c r="F20" t="n">
-        <v>872.7988173506587</v>
+        <v>872.7988173506578</v>
       </c>
       <c r="G20" t="n">
         <v>457.2866824420198</v>
@@ -5750,52 +5750,52 @@
         <v>96.25231534256025</v>
       </c>
       <c r="J20" t="n">
-        <v>415.9620235708707</v>
+        <v>415.9620235708705</v>
       </c>
       <c r="K20" t="n">
-        <v>1015.868804260583</v>
+        <v>694.9648458151295</v>
       </c>
       <c r="L20" t="n">
-        <v>1812.382840634635</v>
+        <v>1491.478882189182</v>
       </c>
       <c r="M20" t="n">
-        <v>2270.24632524017</v>
+        <v>2394.360764952621</v>
       </c>
       <c r="N20" t="n">
-        <v>2844.9240614985</v>
+        <v>3297.220222967306</v>
       </c>
       <c r="O20" t="n">
-        <v>3652.281007791103</v>
+        <v>4104.577169259908</v>
       </c>
       <c r="P20" t="n">
-        <v>4303.667099681198</v>
+        <v>4578.918196108757</v>
       </c>
       <c r="Q20" t="n">
-        <v>4715.609167289134</v>
+        <v>4780.668422963387</v>
       </c>
       <c r="R20" t="n">
         <v>4812.615767128013</v>
       </c>
       <c r="S20" t="n">
-        <v>4692.305782331642</v>
+        <v>4692.305782331641</v>
       </c>
       <c r="T20" t="n">
-        <v>4484.403314706826</v>
+        <v>4484.403314706825</v>
       </c>
       <c r="U20" t="n">
-        <v>4230.837663200371</v>
+        <v>4230.83766320037</v>
       </c>
       <c r="V20" t="n">
-        <v>3899.7747758568</v>
+        <v>3899.774775856799</v>
       </c>
       <c r="W20" t="n">
-        <v>3547.006120586686</v>
+        <v>3547.006120586685</v>
       </c>
       <c r="X20" t="n">
-        <v>3173.540362325606</v>
+        <v>3173.540362325605</v>
       </c>
       <c r="Y20" t="n">
-        <v>2783.401030349794</v>
+        <v>2783.401030349793</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>96.25231534256025</v>
       </c>
       <c r="J21" t="n">
-        <v>290.9154234051994</v>
+        <v>292.9758476495718</v>
       </c>
       <c r="K21" t="n">
-        <v>491.9475322534557</v>
+        <v>494.0079564978282</v>
       </c>
       <c r="L21" t="n">
-        <v>808.5825526582212</v>
+        <v>810.6429769025935</v>
       </c>
       <c r="M21" t="n">
-        <v>1197.437554933776</v>
+        <v>1199.497979178149</v>
       </c>
       <c r="N21" t="n">
-        <v>1610.993036961142</v>
+        <v>1613.053461205514</v>
       </c>
       <c r="O21" t="n">
-        <v>1967.095713196006</v>
+        <v>1969.156137440378</v>
       </c>
       <c r="P21" t="n">
-        <v>2233.566439197709</v>
+        <v>2441.5429540562</v>
       </c>
       <c r="Q21" t="n">
         <v>2569.752381132564</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>727.8916034198443</v>
+        <v>563.2758557379373</v>
       </c>
       <c r="C22" t="n">
-        <v>558.9554204919374</v>
+        <v>394.3396728100304</v>
       </c>
       <c r="D22" t="n">
-        <v>558.9554204919374</v>
+        <v>244.2230333976947</v>
       </c>
       <c r="E22" t="n">
-        <v>411.0423269095443</v>
+        <v>244.2230333976947</v>
       </c>
       <c r="F22" t="n">
-        <v>264.1523794116339</v>
+        <v>244.2230333976947</v>
       </c>
       <c r="G22" t="n">
-        <v>96.25231534256025</v>
+        <v>244.2230333976947</v>
       </c>
       <c r="H22" t="n">
         <v>96.25231534256025</v>
@@ -5908,10 +5908,10 @@
         <v>96.25231534256025</v>
       </c>
       <c r="J22" t="n">
-        <v>127.7084527208553</v>
+        <v>127.7084527208552</v>
       </c>
       <c r="K22" t="n">
-        <v>309.2373860905589</v>
+        <v>309.2373860905588</v>
       </c>
       <c r="L22" t="n">
         <v>597.0583571824201</v>
@@ -5932,28 +5932,28 @@
         <v>1765.40156103574</v>
       </c>
       <c r="R22" t="n">
-        <v>1666.703040729649</v>
+        <v>1765.40156103574</v>
       </c>
       <c r="S22" t="n">
-        <v>1666.703040729649</v>
+        <v>1570.27854041029</v>
       </c>
       <c r="T22" t="n">
-        <v>1499.679267258675</v>
+        <v>1570.27854041029</v>
       </c>
       <c r="U22" t="n">
-        <v>1210.565642523748</v>
+        <v>1570.27854041029</v>
       </c>
       <c r="V22" t="n">
-        <v>955.8811543178616</v>
+        <v>1315.594052204403</v>
       </c>
       <c r="W22" t="n">
-        <v>955.8811543178616</v>
+        <v>1026.176882167443</v>
       </c>
       <c r="X22" t="n">
-        <v>727.8916034198443</v>
+        <v>798.1873312694253</v>
       </c>
       <c r="Y22" t="n">
-        <v>727.8916034198443</v>
+        <v>577.3947521258951</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2396.801190285673</v>
+        <v>2396.801190285672</v>
       </c>
       <c r="C23" t="n">
         <v>2027.838673345261</v>
       </c>
       <c r="D23" t="n">
-        <v>1669.572974738511</v>
+        <v>1669.57297473851</v>
       </c>
       <c r="E23" t="n">
         <v>1283.784722140266</v>
@@ -5987,19 +5987,19 @@
         <v>96.25231534256025</v>
       </c>
       <c r="J23" t="n">
-        <v>415.9620235708707</v>
+        <v>415.9620235708705</v>
       </c>
       <c r="K23" t="n">
         <v>1015.868804260583</v>
       </c>
       <c r="L23" t="n">
-        <v>1812.382840634635</v>
+        <v>1398.898238229689</v>
       </c>
       <c r="M23" t="n">
-        <v>2270.24632524017</v>
+        <v>2301.780120993128</v>
       </c>
       <c r="N23" t="n">
-        <v>2844.9240614985</v>
+        <v>3204.639579007813</v>
       </c>
       <c r="O23" t="n">
         <v>3652.281007791103</v>
@@ -6023,16 +6023,16 @@
         <v>4230.837663200371</v>
       </c>
       <c r="V23" t="n">
-        <v>3899.774775856801</v>
+        <v>3899.7747758568</v>
       </c>
       <c r="W23" t="n">
         <v>3547.006120586686</v>
       </c>
       <c r="X23" t="n">
-        <v>3173.540362325607</v>
+        <v>3173.540362325606</v>
       </c>
       <c r="Y23" t="n">
-        <v>2783.401030349795</v>
+        <v>2783.401030349794</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6066,28 @@
         <v>96.25231534256025</v>
       </c>
       <c r="J24" t="n">
-        <v>290.9154234051994</v>
+        <v>292.9758476495718</v>
       </c>
       <c r="K24" t="n">
-        <v>491.9475322534557</v>
+        <v>522.5569039751563</v>
       </c>
       <c r="L24" t="n">
-        <v>808.5825526582212</v>
+        <v>839.1919243799216</v>
       </c>
       <c r="M24" t="n">
-        <v>1197.437554933776</v>
+        <v>1228.046926655477</v>
       </c>
       <c r="N24" t="n">
-        <v>1610.993036961142</v>
+        <v>1641.602408682842</v>
       </c>
       <c r="O24" t="n">
-        <v>1967.095713196006</v>
+        <v>1997.705084917706</v>
       </c>
       <c r="P24" t="n">
-        <v>2233.566439197709</v>
+        <v>2264.17581091941</v>
       </c>
       <c r="Q24" t="n">
-        <v>2569.752381132564</v>
+        <v>2600.361752854265</v>
       </c>
       <c r="R24" t="n">
         <v>2600.361752854265</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>581.0592803946752</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="C25" t="n">
-        <v>412.1230974667683</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="D25" t="n">
-        <v>412.1230974667683</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="E25" t="n">
-        <v>412.1230974667683</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="F25" t="n">
-        <v>412.1230974667683</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="G25" t="n">
-        <v>244.2230333976947</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="H25" t="n">
         <v>96.25231534256025</v>
@@ -6148,13 +6148,13 @@
         <v>127.7084527208552</v>
       </c>
       <c r="K25" t="n">
-        <v>309.2373860905589</v>
+        <v>309.2373860905587</v>
       </c>
       <c r="L25" t="n">
-        <v>597.0583571824202</v>
+        <v>597.0583571824201</v>
       </c>
       <c r="M25" t="n">
-        <v>910.9143388153278</v>
+        <v>910.9143388153277</v>
       </c>
       <c r="N25" t="n">
         <v>1222.74214312947</v>
@@ -6172,25 +6172,25 @@
         <v>1765.40156103574</v>
       </c>
       <c r="S25" t="n">
-        <v>1765.40156103574</v>
+        <v>1570.27854041029</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.792246527243</v>
+        <v>1347.669225901793</v>
       </c>
       <c r="U25" t="n">
-        <v>1534.79895436578</v>
+        <v>1089.136103626955</v>
       </c>
       <c r="V25" t="n">
-        <v>1280.114466159893</v>
+        <v>834.4516154210683</v>
       </c>
       <c r="W25" t="n">
-        <v>990.6972961229322</v>
+        <v>545.0344453841077</v>
       </c>
       <c r="X25" t="n">
-        <v>762.7077452249149</v>
+        <v>317.0448944860904</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.7077452249149</v>
+        <v>96.25231534256025</v>
       </c>
     </row>
     <row r="26">
@@ -6206,7 +6206,7 @@
         <v>2027.838673345261</v>
       </c>
       <c r="D26" t="n">
-        <v>1669.57297473851</v>
+        <v>1669.572974738511</v>
       </c>
       <c r="E26" t="n">
         <v>1283.784722140266</v>
@@ -6215,16 +6215,16 @@
         <v>872.7988173506587</v>
       </c>
       <c r="G26" t="n">
-        <v>457.2866824420199</v>
+        <v>457.2866824420198</v>
       </c>
       <c r="H26" t="n">
-        <v>155.2001605676189</v>
+        <v>155.2001605676188</v>
       </c>
       <c r="I26" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="J26" t="n">
-        <v>415.9620235708707</v>
+        <v>415.9620235708706</v>
       </c>
       <c r="K26" t="n">
         <v>1015.868804260583</v>
@@ -6233,28 +6233,28 @@
         <v>1812.382840634635</v>
       </c>
       <c r="M26" t="n">
-        <v>2270.24632524017</v>
+        <v>2375.038058651681</v>
       </c>
       <c r="N26" t="n">
-        <v>2844.9240614985</v>
+        <v>2844.924061498501</v>
       </c>
       <c r="O26" t="n">
-        <v>3652.281007791103</v>
+        <v>3652.281007791104</v>
       </c>
       <c r="P26" t="n">
-        <v>4303.667099681198</v>
+        <v>4303.667099681199</v>
       </c>
       <c r="Q26" t="n">
-        <v>4715.609167289134</v>
+        <v>4715.609167289135</v>
       </c>
       <c r="R26" t="n">
         <v>4812.615767128013</v>
       </c>
       <c r="S26" t="n">
-        <v>4692.305782331641</v>
+        <v>4692.305782331642</v>
       </c>
       <c r="T26" t="n">
-        <v>4484.403314706825</v>
+        <v>4484.403314706826</v>
       </c>
       <c r="U26" t="n">
         <v>4230.837663200371</v>
@@ -6300,31 +6300,31 @@
         <v>113.1312674650428</v>
       </c>
       <c r="I27" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="J27" t="n">
         <v>292.9758476495718</v>
       </c>
       <c r="K27" t="n">
-        <v>699.9240471119464</v>
+        <v>522.5569039751563</v>
       </c>
       <c r="L27" t="n">
-        <v>1016.559067516712</v>
+        <v>839.1919243799216</v>
       </c>
       <c r="M27" t="n">
-        <v>1405.414069792267</v>
+        <v>1228.046926655477</v>
       </c>
       <c r="N27" t="n">
-        <v>1818.969551819632</v>
+        <v>1641.602408682842</v>
       </c>
       <c r="O27" t="n">
-        <v>2175.072228054496</v>
+        <v>1997.705084917706</v>
       </c>
       <c r="P27" t="n">
-        <v>2441.5429540562</v>
+        <v>2264.17581091941</v>
       </c>
       <c r="Q27" t="n">
-        <v>2569.752381132564</v>
+        <v>2600.361752854265</v>
       </c>
       <c r="R27" t="n">
         <v>2600.361752854265</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>265.1884982704671</v>
+        <v>982.3458576989304</v>
       </c>
       <c r="C28" t="n">
-        <v>96.25231534256025</v>
+        <v>813.4096747710236</v>
       </c>
       <c r="D28" t="n">
-        <v>96.25231534256025</v>
+        <v>663.2930353586878</v>
       </c>
       <c r="E28" t="n">
-        <v>96.25231534256025</v>
+        <v>515.3799417762946</v>
       </c>
       <c r="F28" t="n">
-        <v>96.25231534256025</v>
+        <v>515.3799417762946</v>
       </c>
       <c r="G28" t="n">
-        <v>96.25231534256025</v>
+        <v>347.4798777072209</v>
       </c>
       <c r="H28" t="n">
-        <v>96.25231534256025</v>
+        <v>199.5091596520865</v>
       </c>
       <c r="I28" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="J28" t="n">
         <v>127.7084527208552</v>
       </c>
       <c r="K28" t="n">
-        <v>309.2373860905589</v>
+        <v>309.2373860905588</v>
       </c>
       <c r="L28" t="n">
         <v>597.0583571824202</v>
       </c>
       <c r="M28" t="n">
-        <v>910.9143388153278</v>
+        <v>910.9143388153277</v>
       </c>
       <c r="N28" t="n">
         <v>1222.74214312947</v>
@@ -6409,25 +6409,25 @@
         <v>1765.40156103574</v>
       </c>
       <c r="S28" t="n">
-        <v>1765.40156103574</v>
+        <v>1570.27854041029</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.792246527243</v>
+        <v>1347.669225901793</v>
       </c>
       <c r="U28" t="n">
-        <v>1439.720751385102</v>
+        <v>1347.669225901793</v>
       </c>
       <c r="V28" t="n">
-        <v>1185.036263179215</v>
+        <v>1347.669225901793</v>
       </c>
       <c r="W28" t="n">
-        <v>895.6190931422543</v>
+        <v>1347.669225901793</v>
       </c>
       <c r="X28" t="n">
-        <v>667.629542244237</v>
+        <v>1347.669225901793</v>
       </c>
       <c r="Y28" t="n">
-        <v>446.8369631007068</v>
+        <v>1126.876646758263</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2396.801190285672</v>
+        <v>2396.801190285678</v>
       </c>
       <c r="C29" t="n">
-        <v>2027.838673345261</v>
+        <v>2027.838673345266</v>
       </c>
       <c r="D29" t="n">
-        <v>1669.572974738511</v>
+        <v>1669.572974738516</v>
       </c>
       <c r="E29" t="n">
-        <v>1283.784722140267</v>
+        <v>1283.784722140271</v>
       </c>
       <c r="F29" t="n">
-        <v>872.7988173506587</v>
+        <v>872.798817350664</v>
       </c>
       <c r="G29" t="n">
-        <v>457.2866824420198</v>
+        <v>457.2866824420251</v>
       </c>
       <c r="H29" t="n">
-        <v>155.2001605676189</v>
+        <v>155.2001605676191</v>
       </c>
       <c r="I29" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256038</v>
       </c>
       <c r="J29" t="n">
-        <v>415.9620235708707</v>
+        <v>282.2465831918396</v>
       </c>
       <c r="K29" t="n">
-        <v>1015.868804260583</v>
+        <v>561.2494054360985</v>
       </c>
       <c r="L29" t="n">
-        <v>1812.382840634635</v>
+        <v>1357.763441810151</v>
       </c>
       <c r="M29" t="n">
-        <v>2270.24632524017</v>
+        <v>2260.64532457359</v>
       </c>
       <c r="N29" t="n">
-        <v>2909.983317172752</v>
+        <v>3163.504782588275</v>
       </c>
       <c r="O29" t="n">
-        <v>3717.340263465355</v>
+        <v>3970.861728880877</v>
       </c>
       <c r="P29" t="n">
-        <v>4368.72635535545</v>
+        <v>4303.667099681204</v>
       </c>
       <c r="Q29" t="n">
-        <v>4780.668422963387</v>
+        <v>4715.609167289141</v>
       </c>
       <c r="R29" t="n">
-        <v>4812.615767128013</v>
+        <v>4812.615767128019</v>
       </c>
       <c r="S29" t="n">
-        <v>4692.305782331641</v>
+        <v>4692.305782331649</v>
       </c>
       <c r="T29" t="n">
-        <v>4484.403314706825</v>
+        <v>4484.403314706831</v>
       </c>
       <c r="U29" t="n">
-        <v>4230.837663200371</v>
+        <v>4230.837663200376</v>
       </c>
       <c r="V29" t="n">
-        <v>3899.7747758568</v>
+        <v>3899.774775856806</v>
       </c>
       <c r="W29" t="n">
-        <v>3547.006120586686</v>
+        <v>3547.006120586691</v>
       </c>
       <c r="X29" t="n">
-        <v>3173.540362325606</v>
+        <v>3173.540362325612</v>
       </c>
       <c r="Y29" t="n">
-        <v>2783.401030349794</v>
+        <v>2783.4010303498</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6516,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>971.6630058531881</v>
+        <v>971.6630058531883</v>
       </c>
       <c r="C30" t="n">
-        <v>797.2099765720611</v>
+        <v>797.2099765720614</v>
       </c>
       <c r="D30" t="n">
-        <v>648.2755669108099</v>
+        <v>648.2755669108101</v>
       </c>
       <c r="E30" t="n">
-        <v>489.0381119053544</v>
+        <v>489.0381119053545</v>
       </c>
       <c r="F30" t="n">
-        <v>342.5035539322394</v>
+        <v>342.5035539322395</v>
       </c>
       <c r="G30" t="n">
-        <v>205.9052016818157</v>
+        <v>205.9052016818158</v>
       </c>
       <c r="H30" t="n">
-        <v>113.1312674650428</v>
+        <v>113.1312674650429</v>
       </c>
       <c r="I30" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256038</v>
       </c>
       <c r="J30" t="n">
-        <v>168.1457226625671</v>
+        <v>292.975847649572</v>
       </c>
       <c r="K30" t="n">
-        <v>369.1778315108235</v>
+        <v>522.5569039751567</v>
       </c>
       <c r="L30" t="n">
-        <v>1047.168439238412</v>
+        <v>839.1919243799221</v>
       </c>
       <c r="M30" t="n">
-        <v>1436.023441513968</v>
+        <v>1228.046926655477</v>
       </c>
       <c r="N30" t="n">
-        <v>1849.578923541333</v>
+        <v>1641.602408682843</v>
       </c>
       <c r="O30" t="n">
-        <v>2205.681599776197</v>
+        <v>1997.705084917707</v>
       </c>
       <c r="P30" t="n">
-        <v>2472.1523257779</v>
+        <v>2264.17581091941</v>
       </c>
       <c r="Q30" t="n">
         <v>2600.361752854265</v>
@@ -6576,7 +6576,7 @@
         <v>2044.879606803687</v>
       </c>
       <c r="V30" t="n">
-        <v>1809.727498571944</v>
+        <v>1809.727498571945</v>
       </c>
       <c r="W30" t="n">
         <v>1555.490141843743</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>529.7452340841957</v>
+        <v>329.4264859889864</v>
       </c>
       <c r="C31" t="n">
-        <v>360.8090511562888</v>
+        <v>329.4264859889864</v>
       </c>
       <c r="D31" t="n">
-        <v>210.692411743953</v>
+        <v>244.2230333976948</v>
       </c>
       <c r="E31" t="n">
-        <v>96.25231534256025</v>
+        <v>244.2230333976948</v>
       </c>
       <c r="F31" t="n">
-        <v>96.25231534256025</v>
+        <v>244.2230333976948</v>
       </c>
       <c r="G31" t="n">
-        <v>96.25231534256025</v>
+        <v>244.2230333976948</v>
       </c>
       <c r="H31" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256038</v>
       </c>
       <c r="I31" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256038</v>
       </c>
       <c r="J31" t="n">
         <v>127.7084527208553</v>
@@ -6625,10 +6625,10 @@
         <v>309.2373860905589</v>
       </c>
       <c r="L31" t="n">
-        <v>597.0583571824202</v>
+        <v>597.0583571824203</v>
       </c>
       <c r="M31" t="n">
-        <v>910.9143388153278</v>
+        <v>910.9143388153279</v>
       </c>
       <c r="N31" t="n">
         <v>1222.74214312947</v>
@@ -6637,34 +6637,34 @@
         <v>1494.749295691747</v>
       </c>
       <c r="P31" t="n">
-        <v>1703.977723167557</v>
+        <v>1703.977723167556</v>
       </c>
       <c r="Q31" t="n">
-        <v>1765.40156103574</v>
+        <v>1765.401561035739</v>
       </c>
       <c r="R31" t="n">
-        <v>1765.40156103574</v>
+        <v>1666.703040729647</v>
       </c>
       <c r="S31" t="n">
-        <v>1765.40156103574</v>
+        <v>1471.580020104198</v>
       </c>
       <c r="T31" t="n">
-        <v>1765.40156103574</v>
+        <v>1248.970705595701</v>
       </c>
       <c r="U31" t="n">
-        <v>1476.287936300813</v>
+        <v>959.8570808607736</v>
       </c>
       <c r="V31" t="n">
-        <v>1221.603448094926</v>
+        <v>959.8570808607736</v>
       </c>
       <c r="W31" t="n">
-        <v>932.1862780579655</v>
+        <v>959.8570808607736</v>
       </c>
       <c r="X31" t="n">
-        <v>932.1862780579655</v>
+        <v>731.8675299627563</v>
       </c>
       <c r="Y31" t="n">
-        <v>711.3936989144354</v>
+        <v>511.0749508192262</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2396.801190285672</v>
+        <v>2396.801190285679</v>
       </c>
       <c r="C32" t="n">
-        <v>2027.838673345261</v>
+        <v>2027.838673345267</v>
       </c>
       <c r="D32" t="n">
-        <v>1669.57297473851</v>
+        <v>1669.572974738517</v>
       </c>
       <c r="E32" t="n">
-        <v>1283.784722140266</v>
+        <v>1283.784722140272</v>
       </c>
       <c r="F32" t="n">
-        <v>872.7988173506585</v>
+        <v>872.7988173506649</v>
       </c>
       <c r="G32" t="n">
-        <v>457.2866824420198</v>
+        <v>457.286682442026</v>
       </c>
       <c r="H32" t="n">
-        <v>155.2001605676189</v>
+        <v>155.2001605676251</v>
       </c>
       <c r="I32" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256038</v>
       </c>
       <c r="J32" t="n">
         <v>415.9620235708707</v>
@@ -6704,46 +6704,46 @@
         <v>1015.868804260583</v>
       </c>
       <c r="L32" t="n">
-        <v>1812.382840634635</v>
+        <v>1472.156175888247</v>
       </c>
       <c r="M32" t="n">
-        <v>2375.038058651679</v>
+        <v>2375.038058651686</v>
       </c>
       <c r="N32" t="n">
-        <v>2844.9240614985</v>
+        <v>2844.924061498507</v>
       </c>
       <c r="O32" t="n">
-        <v>3652.281007791103</v>
+        <v>3652.281007791109</v>
       </c>
       <c r="P32" t="n">
-        <v>4303.667099681198</v>
+        <v>4303.667099681204</v>
       </c>
       <c r="Q32" t="n">
-        <v>4715.609167289134</v>
+        <v>4715.609167289141</v>
       </c>
       <c r="R32" t="n">
-        <v>4812.615767128013</v>
+        <v>4812.615767128019</v>
       </c>
       <c r="S32" t="n">
-        <v>4692.305782331642</v>
+        <v>4692.305782331649</v>
       </c>
       <c r="T32" t="n">
-        <v>4484.403314706826</v>
+        <v>4484.403314706832</v>
       </c>
       <c r="U32" t="n">
-        <v>4230.837663200371</v>
+        <v>4230.837663200377</v>
       </c>
       <c r="V32" t="n">
-        <v>3899.7747758568</v>
+        <v>3899.774775856807</v>
       </c>
       <c r="W32" t="n">
-        <v>3547.006120586686</v>
+        <v>3547.006120586692</v>
       </c>
       <c r="X32" t="n">
-        <v>3173.540362325606</v>
+        <v>3173.540362325612</v>
       </c>
       <c r="Y32" t="n">
-        <v>2783.401030349794</v>
+        <v>2783.401030349801</v>
       </c>
     </row>
     <row r="33">
@@ -6753,52 +6753,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>971.6630058531881</v>
+        <v>971.6630058531883</v>
       </c>
       <c r="C33" t="n">
-        <v>797.2099765720611</v>
+        <v>797.2099765720614</v>
       </c>
       <c r="D33" t="n">
-        <v>648.2755669108099</v>
+        <v>648.2755669108101</v>
       </c>
       <c r="E33" t="n">
-        <v>489.0381119053544</v>
+        <v>489.0381119053545</v>
       </c>
       <c r="F33" t="n">
-        <v>342.5035539322394</v>
+        <v>342.5035539322395</v>
       </c>
       <c r="G33" t="n">
-        <v>205.9052016818157</v>
+        <v>205.9052016818158</v>
       </c>
       <c r="H33" t="n">
-        <v>113.1312674650428</v>
+        <v>113.1312674650429</v>
       </c>
       <c r="I33" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256038</v>
       </c>
       <c r="J33" t="n">
-        <v>292.9758476495718</v>
+        <v>292.975847649572</v>
       </c>
       <c r="K33" t="n">
-        <v>494.0079564978282</v>
+        <v>522.5569039751567</v>
       </c>
       <c r="L33" t="n">
-        <v>810.6429769025937</v>
+        <v>839.1919243799221</v>
       </c>
       <c r="M33" t="n">
-        <v>1199.497979178149</v>
+        <v>1228.046926655477</v>
       </c>
       <c r="N33" t="n">
-        <v>1613.053461205514</v>
+        <v>1641.602408682843</v>
       </c>
       <c r="O33" t="n">
-        <v>1969.156137440379</v>
+        <v>1997.705084917707</v>
       </c>
       <c r="P33" t="n">
-        <v>2235.626863442082</v>
+        <v>2264.17581091941</v>
       </c>
       <c r="Q33" t="n">
-        <v>2569.752381132564</v>
+        <v>2600.361752854265</v>
       </c>
       <c r="R33" t="n">
         <v>2600.361752854265</v>
@@ -6813,7 +6813,7 @@
         <v>2044.879606803687</v>
       </c>
       <c r="V33" t="n">
-        <v>1809.727498571944</v>
+        <v>1809.727498571945</v>
       </c>
       <c r="W33" t="n">
         <v>1555.490141843743</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>449.8982418535529</v>
+        <v>645.7088878684119</v>
       </c>
       <c r="C34" t="n">
-        <v>419.3664013463989</v>
+        <v>609.144327389621</v>
       </c>
       <c r="D34" t="n">
-        <v>419.3664013463989</v>
+        <v>484.0096211059483</v>
       </c>
       <c r="E34" t="n">
-        <v>296.4352408926695</v>
+        <v>361.0784606522183</v>
       </c>
       <c r="F34" t="n">
-        <v>174.5272265234228</v>
+        <v>239.1704462829709</v>
       </c>
       <c r="G34" t="n">
-        <v>174.5272265234228</v>
+        <v>96.25231534256038</v>
       </c>
       <c r="H34" t="n">
-        <v>174.5272265234228</v>
+        <v>96.25231534256038</v>
       </c>
       <c r="I34" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256038</v>
       </c>
       <c r="J34" t="n">
-        <v>152.1932453802585</v>
+        <v>152.1932453802578</v>
       </c>
       <c r="K34" t="n">
-        <v>358.2069714093653</v>
+        <v>358.2069714093641</v>
       </c>
       <c r="L34" t="n">
-        <v>670.5127351606299</v>
+        <v>670.5127351606282</v>
       </c>
       <c r="M34" t="n">
-        <v>1008.853509452941</v>
+        <v>1008.853509452938</v>
       </c>
       <c r="N34" t="n">
-        <v>1345.166106426486</v>
+        <v>1345.166106426483</v>
       </c>
       <c r="O34" t="n">
-        <v>1641.658051648167</v>
+        <v>1641.658051648163</v>
       </c>
       <c r="P34" t="n">
-        <v>1875.37127178338</v>
+        <v>1875.371271783376</v>
       </c>
       <c r="Q34" t="n">
-        <v>1961.279902310966</v>
+        <v>1961.279902310961</v>
       </c>
       <c r="R34" t="n">
-        <v>1961.279902310966</v>
+        <v>1961.279902310961</v>
       </c>
       <c r="S34" t="n">
-        <v>1961.279902310966</v>
+        <v>1961.279902310961</v>
       </c>
       <c r="T34" t="n">
-        <v>1763.652520931133</v>
+        <v>1763.652520931128</v>
       </c>
       <c r="U34" t="n">
-        <v>1499.52082932487</v>
+        <v>1499.520829324864</v>
       </c>
       <c r="V34" t="n">
-        <v>1269.818274247646</v>
+        <v>1269.81827424764</v>
       </c>
       <c r="W34" t="n">
-        <v>1005.383037339349</v>
+        <v>1005.383037339343</v>
       </c>
       <c r="X34" t="n">
-        <v>802.3754195699953</v>
+        <v>802.3754195699886</v>
       </c>
       <c r="Y34" t="n">
-        <v>606.564773555129</v>
+        <v>802.3754195699886</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1984.953510602831</v>
+        <v>1984.953510602832</v>
       </c>
       <c r="C35" t="n">
-        <v>1672.361206803367</v>
+        <v>1672.361206803368</v>
       </c>
       <c r="D35" t="n">
-        <v>1370.465721337564</v>
+        <v>1370.465721337565</v>
       </c>
       <c r="E35" t="n">
-        <v>1041.047681880267</v>
+        <v>1041.047681880268</v>
       </c>
       <c r="F35" t="n">
-        <v>686.4319902316067</v>
+        <v>686.4319902316083</v>
       </c>
       <c r="G35" t="n">
-        <v>327.2900684639153</v>
+        <v>327.2900684639165</v>
       </c>
       <c r="H35" t="n">
-        <v>81.57375973046295</v>
+        <v>81.57375973046302</v>
       </c>
       <c r="I35" t="n">
-        <v>78.99612764635184</v>
+        <v>78.99612764635185</v>
       </c>
       <c r="J35" t="n">
         <v>398.7058358746622</v>
       </c>
       <c r="K35" t="n">
-        <v>786.6237147047453</v>
+        <v>998.6126165643742</v>
       </c>
       <c r="L35" t="n">
-        <v>1583.137751078798</v>
+        <v>1381.642050533481</v>
       </c>
       <c r="M35" t="n">
-        <v>2041.001235684332</v>
+        <v>1839.505535139015</v>
       </c>
       <c r="N35" t="n">
-        <v>2510.887238531153</v>
+        <v>2309.391537985836</v>
       </c>
       <c r="O35" t="n">
-        <v>3318.244184823756</v>
+        <v>3116.748484278439</v>
       </c>
       <c r="P35" t="n">
-        <v>3651.049555624083</v>
+        <v>3505.916970545031</v>
       </c>
       <c r="Q35" t="n">
-        <v>3852.799782478713</v>
+        <v>3917.859038152967</v>
       </c>
       <c r="R35" t="n">
-        <v>3949.806382317592</v>
+        <v>3949.806382317593</v>
       </c>
       <c r="S35" t="n">
         <v>3885.866610662169</v>
       </c>
       <c r="T35" t="n">
-        <v>3734.334356178299</v>
+        <v>3734.3343561783</v>
       </c>
       <c r="U35" t="n">
-        <v>3537.138917812792</v>
+        <v>3537.138917812793</v>
       </c>
       <c r="V35" t="n">
-        <v>3262.446243610168</v>
+        <v>3262.44624361017</v>
       </c>
       <c r="W35" t="n">
-        <v>2966.047801481002</v>
+        <v>2966.047801481004</v>
       </c>
       <c r="X35" t="n">
-        <v>2648.95225636087</v>
+        <v>2648.952256360871</v>
       </c>
       <c r="Y35" t="n">
-        <v>2315.183137526005</v>
+        <v>2315.183137526007</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>188.6490139856073</v>
       </c>
       <c r="H36" t="n">
-        <v>95.87507976883435</v>
+        <v>95.87507976883437</v>
       </c>
       <c r="I36" t="n">
-        <v>78.99612764635184</v>
+        <v>78.99612764635185</v>
       </c>
       <c r="J36" t="n">
         <v>275.7196599533634</v>
       </c>
       <c r="K36" t="n">
-        <v>476.7517688016198</v>
+        <v>505.3007162789481</v>
       </c>
       <c r="L36" t="n">
-        <v>793.3867892063853</v>
+        <v>821.9357366837135</v>
       </c>
       <c r="M36" t="n">
-        <v>1182.241791481941</v>
+        <v>1210.790738959269</v>
       </c>
       <c r="N36" t="n">
-        <v>1595.797273509306</v>
+        <v>1624.346220986634</v>
       </c>
       <c r="O36" t="n">
-        <v>1951.89994974417</v>
+        <v>1980.448897221498</v>
       </c>
       <c r="P36" t="n">
-        <v>2218.370675745874</v>
+        <v>2246.919623223202</v>
       </c>
       <c r="Q36" t="n">
-        <v>2554.556617680728</v>
+        <v>2583.105565158056</v>
       </c>
       <c r="R36" t="n">
         <v>2583.105565158056</v>
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>717.3881255140002</v>
+        <v>717.3881255139999</v>
       </c>
       <c r="C37" t="n">
-        <v>604.8221557270408</v>
+        <v>604.8221557270404</v>
       </c>
       <c r="D37" t="n">
-        <v>511.0757294556525</v>
+        <v>511.0757294556521</v>
       </c>
       <c r="E37" t="n">
-        <v>419.5328490142069</v>
+        <v>419.5328490142065</v>
       </c>
       <c r="F37" t="n">
-        <v>329.013114657244</v>
+        <v>329.0131146572436</v>
       </c>
       <c r="G37" t="n">
-        <v>217.4832637291179</v>
+        <v>217.4832637291174</v>
       </c>
       <c r="H37" t="n">
-        <v>125.8827588149309</v>
+        <v>125.8827588149306</v>
       </c>
       <c r="I37" t="n">
-        <v>78.99612764635184</v>
+        <v>78.99612764635185</v>
       </c>
       <c r="J37" t="n">
-        <v>165.7007109240895</v>
+        <v>165.7007109240894</v>
       </c>
       <c r="K37" t="n">
-        <v>402.4780901932359</v>
+        <v>402.4780901932356</v>
       </c>
       <c r="L37" t="n">
-        <v>745.5475071845399</v>
+        <v>745.5475071845394</v>
       </c>
       <c r="M37" t="n">
         <v>1114.65193471689</v>
       </c>
       <c r="N37" t="n">
-        <v>1481.728184930475</v>
+        <v>1481.728184930474</v>
       </c>
       <c r="O37" t="n">
         <v>1808.983783392194</v>
@@ -7114,19 +7114,19 @@
         <v>2073.460656767447</v>
       </c>
       <c r="Q37" t="n">
-        <v>2190.132940535073</v>
+        <v>2190.132940535072</v>
       </c>
       <c r="R37" t="n">
-        <v>2147.804633369929</v>
+        <v>2147.804633369928</v>
       </c>
       <c r="S37" t="n">
         <v>2009.051825885426</v>
       </c>
       <c r="T37" t="n">
-        <v>1842.812724517877</v>
+        <v>1842.812724517876</v>
       </c>
       <c r="U37" t="n">
-        <v>1610.069312923898</v>
+        <v>1610.069312923897</v>
       </c>
       <c r="V37" t="n">
         <v>1411.755037858958</v>
@@ -7138,7 +7138,7 @@
         <v>1007.088743205875</v>
       </c>
       <c r="Y37" t="n">
-        <v>842.6663772032924</v>
+        <v>842.6663772032921</v>
       </c>
     </row>
     <row r="38">
@@ -7151,73 +7151,73 @@
         <v>1984.953510602832</v>
       </c>
       <c r="C38" t="n">
-        <v>1672.361206803367</v>
+        <v>1672.361206803368</v>
       </c>
       <c r="D38" t="n">
-        <v>1370.465721337564</v>
+        <v>1370.465721337565</v>
       </c>
       <c r="E38" t="n">
-        <v>1041.047681880268</v>
+        <v>1041.047681880269</v>
       </c>
       <c r="F38" t="n">
-        <v>686.4319902316076</v>
+        <v>686.4319902316086</v>
       </c>
       <c r="G38" t="n">
-        <v>327.2900684639165</v>
+        <v>327.2900684639166</v>
       </c>
       <c r="H38" t="n">
-        <v>81.57375973046298</v>
+        <v>81.57375973046302</v>
       </c>
       <c r="I38" t="n">
-        <v>78.99612764635184</v>
+        <v>78.99612764635185</v>
       </c>
       <c r="J38" t="n">
-        <v>346.6800710044638</v>
+        <v>231.3001868543091</v>
       </c>
       <c r="K38" t="n">
-        <v>946.5868516941759</v>
+        <v>831.2069675440212</v>
       </c>
       <c r="L38" t="n">
-        <v>1329.616285663282</v>
+        <v>1214.236401513128</v>
       </c>
       <c r="M38" t="n">
-        <v>1787.479770268817</v>
+        <v>1672.099886118662</v>
       </c>
       <c r="N38" t="n">
-        <v>2257.365773115638</v>
+        <v>2574.959344133348</v>
       </c>
       <c r="O38" t="n">
-        <v>3064.722719408241</v>
+        <v>3173.111599744704</v>
       </c>
       <c r="P38" t="n">
-        <v>3716.108811298336</v>
+        <v>3505.916970545031</v>
       </c>
       <c r="Q38" t="n">
-        <v>3917.859038152966</v>
+        <v>3917.859038152967</v>
       </c>
       <c r="R38" t="n">
-        <v>3949.806382317592</v>
+        <v>3949.806382317593</v>
       </c>
       <c r="S38" t="n">
         <v>3885.866610662169</v>
       </c>
       <c r="T38" t="n">
-        <v>3734.334356178299</v>
+        <v>3734.3343561783</v>
       </c>
       <c r="U38" t="n">
-        <v>3537.138917812792</v>
+        <v>3537.138917812793</v>
       </c>
       <c r="V38" t="n">
-        <v>3262.446243610169</v>
+        <v>3262.44624361017</v>
       </c>
       <c r="W38" t="n">
-        <v>2966.047801481003</v>
+        <v>2966.047801481004</v>
       </c>
       <c r="X38" t="n">
-        <v>2648.95225636087</v>
+        <v>2648.952256360871</v>
       </c>
       <c r="Y38" t="n">
-        <v>2315.183137526006</v>
+        <v>2315.183137526007</v>
       </c>
     </row>
     <row r="39">
@@ -7245,16 +7245,16 @@
         <v>188.6490139856073</v>
       </c>
       <c r="H39" t="n">
-        <v>95.87507976883435</v>
+        <v>95.87507976883437</v>
       </c>
       <c r="I39" t="n">
-        <v>78.99612764635184</v>
+        <v>78.99612764635185</v>
       </c>
       <c r="J39" t="n">
-        <v>150.8895349663587</v>
+        <v>275.7196599533634</v>
       </c>
       <c r="K39" t="n">
-        <v>505.300716278948</v>
+        <v>505.3007162789481</v>
       </c>
       <c r="L39" t="n">
         <v>821.9357366837135</v>
@@ -7312,31 +7312,31 @@
         <v>604.8221557270405</v>
       </c>
       <c r="D40" t="n">
-        <v>511.0757294556523</v>
+        <v>511.0757294556522</v>
       </c>
       <c r="E40" t="n">
-        <v>419.5328490142065</v>
+        <v>419.5328490142066</v>
       </c>
       <c r="F40" t="n">
-        <v>329.0131146572436</v>
+        <v>329.0131146572437</v>
       </c>
       <c r="G40" t="n">
         <v>217.4832637291175</v>
       </c>
       <c r="H40" t="n">
-        <v>125.8827588149305</v>
+        <v>125.8827588149306</v>
       </c>
       <c r="I40" t="n">
-        <v>78.99612764635184</v>
+        <v>78.99612764635185</v>
       </c>
       <c r="J40" t="n">
         <v>165.7007109240894</v>
       </c>
       <c r="K40" t="n">
-        <v>402.4780901932356</v>
+        <v>402.4780901932354</v>
       </c>
       <c r="L40" t="n">
-        <v>745.5475071845397</v>
+        <v>745.5475071845394</v>
       </c>
       <c r="M40" t="n">
         <v>1114.65193471689</v>
@@ -7403,34 +7403,34 @@
         <v>327.2900684639167</v>
       </c>
       <c r="H41" t="n">
-        <v>81.573759730463</v>
+        <v>81.57375973046298</v>
       </c>
       <c r="I41" t="n">
         <v>78.99612764635184</v>
       </c>
       <c r="J41" t="n">
-        <v>398.7058358746622</v>
+        <v>231.3001868543092</v>
       </c>
       <c r="K41" t="n">
-        <v>998.6126165643741</v>
+        <v>510.3030090985682</v>
       </c>
       <c r="L41" t="n">
-        <v>1381.64205053348</v>
+        <v>1203.178608595146</v>
       </c>
       <c r="M41" t="n">
-        <v>1839.505535139015</v>
+        <v>2106.060491358585</v>
       </c>
       <c r="N41" t="n">
-        <v>2309.391537985836</v>
+        <v>2575.946494205406</v>
       </c>
       <c r="O41" t="n">
-        <v>3116.748484278438</v>
+        <v>3383.303440498009</v>
       </c>
       <c r="P41" t="n">
-        <v>3651.049555624083</v>
+        <v>3716.108811298336</v>
       </c>
       <c r="Q41" t="n">
-        <v>3852.799782478714</v>
+        <v>3917.859038152966</v>
       </c>
       <c r="R41" t="n">
         <v>3949.806382317592</v>
@@ -7439,7 +7439,7 @@
         <v>3885.866610662169</v>
       </c>
       <c r="T41" t="n">
-        <v>3734.3343561783</v>
+        <v>3734.334356178299</v>
       </c>
       <c r="U41" t="n">
         <v>3537.138917812793</v>
@@ -7454,7 +7454,7 @@
         <v>2648.952256360871</v>
       </c>
       <c r="Y41" t="n">
-        <v>2315.183137526006</v>
+        <v>2315.183137526007</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>188.6490139856073</v>
       </c>
       <c r="H42" t="n">
-        <v>95.87507976883437</v>
+        <v>95.87507976883435</v>
       </c>
       <c r="I42" t="n">
         <v>78.99612764635184</v>
       </c>
       <c r="J42" t="n">
-        <v>219.8151659250296</v>
+        <v>275.7196599533634</v>
       </c>
       <c r="K42" t="n">
-        <v>682.6678594157388</v>
+        <v>505.300716278948</v>
       </c>
       <c r="L42" t="n">
-        <v>999.3028798205041</v>
+        <v>821.9357366837135</v>
       </c>
       <c r="M42" t="n">
-        <v>1388.157882096059</v>
+        <v>1210.790738959269</v>
       </c>
       <c r="N42" t="n">
-        <v>1801.713364123425</v>
+        <v>1624.346220986634</v>
       </c>
       <c r="O42" t="n">
-        <v>2157.816040358289</v>
+        <v>1980.448897221498</v>
       </c>
       <c r="P42" t="n">
-        <v>2424.286766359992</v>
+        <v>2246.919623223202</v>
       </c>
       <c r="Q42" t="n">
-        <v>2552.496193436356</v>
+        <v>2583.105565158056</v>
       </c>
       <c r="R42" t="n">
         <v>2583.105565158056</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>717.388125514</v>
+        <v>717.3881255140001</v>
       </c>
       <c r="C43" t="n">
-        <v>604.8221557270405</v>
+        <v>604.8221557270406</v>
       </c>
       <c r="D43" t="n">
-        <v>511.0757294556522</v>
+        <v>511.0757294556523</v>
       </c>
       <c r="E43" t="n">
-        <v>419.5328490142066</v>
+        <v>419.5328490142067</v>
       </c>
       <c r="F43" t="n">
-        <v>329.0131146572437</v>
+        <v>329.0131146572438</v>
       </c>
       <c r="G43" t="n">
-        <v>217.4832637291175</v>
+        <v>217.4832637291177</v>
       </c>
       <c r="H43" t="n">
         <v>125.8827588149306</v>
@@ -7567,22 +7567,22 @@
         <v>78.99612764635184</v>
       </c>
       <c r="J43" t="n">
-        <v>165.7007109240893</v>
+        <v>165.7007109240892</v>
       </c>
       <c r="K43" t="n">
-        <v>402.4780901932355</v>
+        <v>402.4780901932354</v>
       </c>
       <c r="L43" t="n">
-        <v>745.5475071845395</v>
+        <v>745.5475071845394</v>
       </c>
       <c r="M43" t="n">
         <v>1114.65193471689</v>
       </c>
       <c r="N43" t="n">
-        <v>1481.728184930475</v>
+        <v>1481.728184930474</v>
       </c>
       <c r="O43" t="n">
-        <v>1808.983783392195</v>
+        <v>1808.983783392194</v>
       </c>
       <c r="P43" t="n">
         <v>2073.460656767447</v>
@@ -7594,7 +7594,7 @@
         <v>2147.804633369929</v>
       </c>
       <c r="S43" t="n">
-        <v>2009.051825885426</v>
+        <v>2009.051825885427</v>
       </c>
       <c r="T43" t="n">
         <v>1842.812724517877</v>
@@ -7612,7 +7612,7 @@
         <v>1007.088743205875</v>
       </c>
       <c r="Y43" t="n">
-        <v>842.6663772032922</v>
+        <v>842.6663772032923</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1984.953510602832</v>
+        <v>1984.953510602831</v>
       </c>
       <c r="C44" t="n">
-        <v>1672.361206803368</v>
+        <v>1672.361206803367</v>
       </c>
       <c r="D44" t="n">
-        <v>1370.465721337565</v>
+        <v>1370.465721337564</v>
       </c>
       <c r="E44" t="n">
-        <v>1041.047681880268</v>
+        <v>1041.047681880267</v>
       </c>
       <c r="F44" t="n">
-        <v>686.4319902316076</v>
+        <v>686.4319902316072</v>
       </c>
       <c r="G44" t="n">
-        <v>327.2900684639162</v>
+        <v>327.2900684639158</v>
       </c>
       <c r="H44" t="n">
-        <v>81.57375973046297</v>
+        <v>81.57375973046294</v>
       </c>
       <c r="I44" t="n">
         <v>78.99612764635184</v>
@@ -7649,25 +7649,25 @@
         <v>398.7058358746622</v>
       </c>
       <c r="K44" t="n">
-        <v>699.9025879860422</v>
+        <v>998.6126165643742</v>
       </c>
       <c r="L44" t="n">
-        <v>1496.416624360095</v>
+        <v>1641.549209439148</v>
       </c>
       <c r="M44" t="n">
-        <v>1954.280108965629</v>
+        <v>2099.412694044683</v>
       </c>
       <c r="N44" t="n">
-        <v>2424.16611181245</v>
+        <v>2569.298696891503</v>
       </c>
       <c r="O44" t="n">
-        <v>2854.530878654935</v>
+        <v>2999.663463733988</v>
       </c>
       <c r="P44" t="n">
-        <v>3505.91697054503</v>
+        <v>3651.049555624083</v>
       </c>
       <c r="Q44" t="n">
-        <v>3917.859038152967</v>
+        <v>3852.799782478713</v>
       </c>
       <c r="R44" t="n">
         <v>3949.806382317592</v>
@@ -7679,19 +7679,19 @@
         <v>3734.334356178299</v>
       </c>
       <c r="U44" t="n">
-        <v>3537.138917812793</v>
+        <v>3537.138917812792</v>
       </c>
       <c r="V44" t="n">
-        <v>3262.44624361017</v>
+        <v>3262.446243610169</v>
       </c>
       <c r="W44" t="n">
-        <v>2966.047801481003</v>
+        <v>2966.047801481002</v>
       </c>
       <c r="X44" t="n">
-        <v>2648.952256360871</v>
+        <v>2648.95225636087</v>
       </c>
       <c r="Y44" t="n">
-        <v>2315.183137526006</v>
+        <v>2315.183137526005</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7725,28 @@
         <v>78.99612764635184</v>
       </c>
       <c r="J45" t="n">
-        <v>275.7196599533634</v>
+        <v>150.8895349663587</v>
       </c>
       <c r="K45" t="n">
-        <v>476.7517688016198</v>
+        <v>351.9216438146151</v>
       </c>
       <c r="L45" t="n">
-        <v>793.3867892063853</v>
+        <v>668.5566642193805</v>
       </c>
       <c r="M45" t="n">
-        <v>1182.241791481941</v>
+        <v>1057.411666494936</v>
       </c>
       <c r="N45" t="n">
-        <v>1595.797273509306</v>
+        <v>1470.967148522301</v>
       </c>
       <c r="O45" t="n">
-        <v>1951.89994974417</v>
+        <v>1827.069824757165</v>
       </c>
       <c r="P45" t="n">
-        <v>2218.370675745874</v>
+        <v>2246.919623223202</v>
       </c>
       <c r="Q45" t="n">
-        <v>2552.496193436356</v>
+        <v>2583.105565158056</v>
       </c>
       <c r="R45" t="n">
         <v>2583.105565158056</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>717.3881255140002</v>
+        <v>717.3881255139995</v>
       </c>
       <c r="C46" t="n">
-        <v>604.8221557270408</v>
+        <v>604.8221557270401</v>
       </c>
       <c r="D46" t="n">
-        <v>511.0757294556525</v>
+        <v>511.075729455652</v>
       </c>
       <c r="E46" t="n">
-        <v>419.5328490142069</v>
+        <v>419.5328490142064</v>
       </c>
       <c r="F46" t="n">
-        <v>329.013114657244</v>
+        <v>329.0131146572435</v>
       </c>
       <c r="G46" t="n">
-        <v>217.4832637291179</v>
+        <v>217.4832637291174</v>
       </c>
       <c r="H46" t="n">
         <v>125.8827588149305</v>
@@ -7804,10 +7804,10 @@
         <v>78.99612764635184</v>
       </c>
       <c r="J46" t="n">
-        <v>165.7007109240894</v>
+        <v>165.7007109240895</v>
       </c>
       <c r="K46" t="n">
-        <v>402.4780901932356</v>
+        <v>402.4780901932357</v>
       </c>
       <c r="L46" t="n">
         <v>745.5475071845397</v>
@@ -7816,10 +7816,10 @@
         <v>1114.65193471689</v>
       </c>
       <c r="N46" t="n">
-        <v>1481.728184930474</v>
+        <v>1481.728184930475</v>
       </c>
       <c r="O46" t="n">
-        <v>1808.983783392194</v>
+        <v>1808.983783392195</v>
       </c>
       <c r="P46" t="n">
         <v>2073.460656767447</v>
@@ -7828,28 +7828,28 @@
         <v>2190.132940535073</v>
       </c>
       <c r="R46" t="n">
-        <v>2147.804633369929</v>
+        <v>2147.804633369928</v>
       </c>
       <c r="S46" t="n">
-        <v>2009.051825885427</v>
+        <v>2009.051825885425</v>
       </c>
       <c r="T46" t="n">
-        <v>1842.812724517877</v>
+        <v>1842.812724517876</v>
       </c>
       <c r="U46" t="n">
-        <v>1610.069312923898</v>
+        <v>1610.069312923897</v>
       </c>
       <c r="V46" t="n">
-        <v>1411.755037858958</v>
+        <v>1411.755037858957</v>
       </c>
       <c r="W46" t="n">
-        <v>1178.708080962945</v>
+        <v>1178.708080962944</v>
       </c>
       <c r="X46" t="n">
-        <v>1007.088743205875</v>
+        <v>1007.088743205874</v>
       </c>
       <c r="Y46" t="n">
-        <v>842.6663772032924</v>
+        <v>842.6663772032917</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711701</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8058,22 +8058,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>383.1483227996787</v>
       </c>
       <c r="N3" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609937</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>382.6009056104162</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8216,7 +8216,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,10 +8538,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N9" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8687,19 +8687,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>227.4617589734397</v>
       </c>
       <c r="N11" t="n">
-        <v>73.99791682681933</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8711,7 +8711,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>69.62184945320209</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>28.83732068416992</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>14.60311251667375</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -8939,13 +8939,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>358.9355917105977</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>37.74830810834834</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>207.9960511253718</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>28.83732068416992</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>14.60311251667375</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,19 +9164,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>410.3099384788324</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>37.13688353911499</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>69.62184945320209</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>238.9146084200191</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>14.60311251667375</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,28 +9401,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>105.8502357692013</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>142.9653091399209</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>124.0097987299316</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9495,10 +9495,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>207.9960511253722</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9641,16 +9641,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>105.8502357692013</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>17.45117367758144</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>124.0097987299316</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>28.83732068416973</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>14.60311251667375</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,10 +9881,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>105.850235769203</v>
       </c>
       <c r="N26" t="n">
-        <v>105.8502357692013</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>207.9960511253718</v>
+        <v>28.83732068416973</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9972,10 +9972,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>14.60311251667375</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>34.03051377911305</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>171.5666556421833</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>28.83732068417007</v>
       </c>
       <c r="L30" t="n">
-        <v>365.0056437604276</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10209,10 +10209,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>14.60311251667372</v>
+        <v>14.60311251667375</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10352,10 +10352,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>73.9979168268265</v>
       </c>
       <c r="M32" t="n">
-        <v>105.8502357692015</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>28.83732068417007</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10446,10 +10446,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>207.9960511253715</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>14.60311251667375</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,10 +10586,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>110.0152086725496</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10601,13 +10601,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>56.93243986491456</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>28.83732068416995</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>43.44043320084347</v>
+        <v>14.60311251667375</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.5453375254087</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10832,16 +10832,16 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>169.4823118877491</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>154.9283560245787</v>
+        <v>28.83732068416995</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>14.60311251667372</v>
+        <v>14.60311251667375</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,16 +11057,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>312.9759247752234</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11075,13 +11075,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>203.5310106518365</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>69.62184945320303</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>28.8373206841699</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11157,10 +11157,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>14.60311251667372</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,10 +11297,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>22.41811097688992</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>262.5324837430982</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11315,10 +11315,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>154.9283560245787</v>
       </c>
       <c r="Q45" t="n">
-        <v>207.996051125372</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>14.60311251667375</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>97.71153510303041</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>193.1717904191954</v>
       </c>
       <c r="T13" t="n">
         <v>220.3832213634118</v>
@@ -23473,16 +23473,16 @@
         <v>286.2224884875777</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>135.4241409562187</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.77849343007556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>77.75618249077088</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.2210634283829</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>146.4910108745831</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>102.2242758664309</v>
@@ -23704,16 +23704,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>220.3832213634118</v>
       </c>
       <c r="U16" t="n">
         <v>286.2224884875777</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>91.13101022847584</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,10 +23902,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.2210634283829</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>146.4910108745831</v>
       </c>
       <c r="I19" t="n">
         <v>102.2242758664309</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>16.93488719823011</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>91.35214702884943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>165.854272757859</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.2210634283829</v>
       </c>
       <c r="H22" t="n">
-        <v>146.4910108745831</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>102.2242758664309</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>97.71153510303041</v>
       </c>
       <c r="S22" t="n">
-        <v>193.1717904191954</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>55.02968562714804</v>
+        <v>220.3832213634118</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2224884875777</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,10 +24376,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.2210634283829</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>146.4910108745831</v>
       </c>
       <c r="I25" t="n">
         <v>102.2242758664309</v>
@@ -24412,13 +24412,13 @@
         <v>97.71153510303041</v>
       </c>
       <c r="S25" t="n">
-        <v>193.1717904191954</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>278.3091292477288</v>
+        <v>30.27469743548787</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>36.74649901319802</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.2210634283829</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>146.4910108745831</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>102.2242758664309</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,22 +24649,22 @@
         <v>97.71153510303041</v>
       </c>
       <c r="S28" t="n">
-        <v>193.1717904191954</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>184.1817082968577</v>
+        <v>286.2224884875777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,13 +24838,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>64.26405495283369</v>
       </c>
       <c r="E31" t="n">
-        <v>33.13826720919032</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,7 +24853,7 @@
         <v>166.2210634283829</v>
       </c>
       <c r="H31" t="n">
-        <v>146.4910108745831</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>102.2242758664309</v>
@@ -24883,25 +24883,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>97.71153510303041</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>193.1717904191954</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>220.3832213634118</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>112.2881851991685</v>
+        <v>106.3157924272485</v>
       </c>
       <c r="D34" t="n">
-        <v>123.8833592208353</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>141.4889496310059</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>121.7588970772061</v>
+        <v>121.7588970772067</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>77.49216206905449</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>72.97942130565339</v>
+        <v>72.97942130565399</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4396766218183</v>
+        <v>168.4396766218189</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>193.8525395547184</v>
       </c>
     </row>
     <row r="35">
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
     </row>
     <row r="41">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>978454.153995458</v>
+        <v>978454.1539954582</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>913002.1958563697</v>
+        <v>913002.1958563698</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>913002.1958563697</v>
+        <v>913002.1958563698</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>913002.1958563697</v>
+        <v>913002.1958563698</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>913002.1958563697</v>
+        <v>913002.1958563698</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>913002.1958563697</v>
+        <v>913002.1958563698</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>913002.1958563697</v>
+        <v>913002.1958563699</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>928568.5170519511</v>
+        <v>928568.5170519509</v>
       </c>
     </row>
     <row r="13">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
         <v>512921.7892760353</v>
       </c>
       <c r="F2" t="n">
-        <v>512921.7892760352</v>
+        <v>512921.7892760353</v>
       </c>
       <c r="G2" t="n">
-        <v>512921.7892760351</v>
+        <v>512921.7892760353</v>
       </c>
       <c r="H2" t="n">
+        <v>512921.7892760354</v>
+      </c>
+      <c r="I2" t="n">
         <v>512921.7892760353</v>
-      </c>
-      <c r="I2" t="n">
-        <v>512921.7892760354</v>
       </c>
       <c r="J2" t="n">
         <v>512921.7892760352</v>
       </c>
       <c r="K2" t="n">
-        <v>512921.7892760351</v>
+        <v>512921.7892760352</v>
       </c>
       <c r="L2" t="n">
-        <v>522120.0699825155</v>
+        <v>522120.0699825158</v>
       </c>
       <c r="M2" t="n">
-        <v>533677.1504117834</v>
+        <v>533677.1504117837</v>
       </c>
       <c r="N2" t="n">
-        <v>533677.1504117837</v>
+        <v>533677.1504117838</v>
       </c>
       <c r="O2" t="n">
         <v>533677.1504117836</v>
       </c>
       <c r="P2" t="n">
-        <v>533677.1504117837</v>
+        <v>533677.1504117835</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154819</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910665</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19785.69103790162</v>
+        <v>19785.6910379012</v>
       </c>
       <c r="M3" t="n">
-        <v>210874.6803490289</v>
+        <v>210874.680349029</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>354433.2672769093</v>
+        <v>354433.2672769091</v>
       </c>
       <c r="C4" t="n">
         <v>354433.2672769093</v>
@@ -26424,40 +26424,40 @@
         <v>354433.2672769093</v>
       </c>
       <c r="E4" t="n">
-        <v>45771.09472565657</v>
+        <v>45771.09472565659</v>
       </c>
       <c r="F4" t="n">
         <v>45771.09472565659</v>
       </c>
       <c r="G4" t="n">
-        <v>45771.09472565657</v>
+        <v>45771.09472565659</v>
       </c>
       <c r="H4" t="n">
-        <v>45771.09472565659</v>
+        <v>45771.0947256566</v>
       </c>
       <c r="I4" t="n">
-        <v>45771.09472565656</v>
+        <v>45771.0947256566</v>
       </c>
       <c r="J4" t="n">
-        <v>45771.09472565657</v>
+        <v>45771.0947256566</v>
       </c>
       <c r="K4" t="n">
-        <v>45771.09472565656</v>
+        <v>45771.09472565645</v>
       </c>
       <c r="L4" t="n">
-        <v>53909.19270292528</v>
+        <v>53909.19270292493</v>
       </c>
       <c r="M4" t="n">
         <v>86767.32092341204</v>
       </c>
       <c r="N4" t="n">
-        <v>86767.32092341204</v>
+        <v>86767.32092341201</v>
       </c>
       <c r="O4" t="n">
-        <v>86767.32092341207</v>
+        <v>86767.32092341201</v>
       </c>
       <c r="P4" t="n">
-        <v>86767.32092341204</v>
+        <v>86767.3209234121</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48281.26876376167</v>
+        <v>48281.26876376175</v>
       </c>
       <c r="C5" t="n">
         <v>48281.26876376167</v>
@@ -26491,25 +26491,25 @@
         <v>94548.43424048129</v>
       </c>
       <c r="J5" t="n">
-        <v>94548.43424048129</v>
+        <v>94548.43424048131</v>
       </c>
       <c r="K5" t="n">
-        <v>94548.43424048129</v>
+        <v>94548.43424048137</v>
       </c>
       <c r="L5" t="n">
-        <v>96627.63831531299</v>
+        <v>96627.63831531302</v>
       </c>
       <c r="M5" t="n">
+        <v>86125.32916542375</v>
+      </c>
+      <c r="N5" t="n">
+        <v>86125.32916542375</v>
+      </c>
+      <c r="O5" t="n">
         <v>86125.32916542374</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>86125.32916542374</v>
-      </c>
-      <c r="O5" t="n">
-        <v>86125.32916542375</v>
-      </c>
-      <c r="P5" t="n">
-        <v>86125.32916542375</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50193.18283956557</v>
+        <v>50193.18283956514</v>
       </c>
       <c r="C6" t="n">
-        <v>130962.6143711133</v>
+        <v>130962.6143711136</v>
       </c>
       <c r="D6" t="n">
-        <v>130962.6143711131</v>
+        <v>130962.6143711132</v>
       </c>
       <c r="E6" t="n">
-        <v>-703210.5806678475</v>
+        <v>-703290.4089799079</v>
       </c>
       <c r="F6" t="n">
-        <v>372602.2603098973</v>
+        <v>372522.4319978369</v>
       </c>
       <c r="G6" t="n">
-        <v>372602.2603098972</v>
+        <v>372522.4319978369</v>
       </c>
       <c r="H6" t="n">
-        <v>372602.2603098974</v>
+        <v>372522.4319978369</v>
       </c>
       <c r="I6" t="n">
-        <v>372602.2603098975</v>
+        <v>372522.4319978369</v>
       </c>
       <c r="J6" t="n">
-        <v>309542.3177107911</v>
+        <v>309462.4893987301</v>
       </c>
       <c r="K6" t="n">
-        <v>372602.2603098972</v>
+        <v>372522.4319978369</v>
       </c>
       <c r="L6" t="n">
-        <v>351797.5479263756</v>
+        <v>351753.0976170333</v>
       </c>
       <c r="M6" t="n">
-        <v>149909.8199739187</v>
+        <v>149909.8199739189</v>
       </c>
       <c r="N6" t="n">
+        <v>360784.5003229481</v>
+      </c>
+      <c r="O6" t="n">
         <v>360784.5003229479</v>
       </c>
-      <c r="O6" t="n">
-        <v>360784.5003229477</v>
-      </c>
       <c r="P6" t="n">
-        <v>360784.5003229479</v>
+        <v>360784.5003229476</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.73211379737702</v>
+        <v>24.73211379737643</v>
       </c>
       <c r="M2" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="N2" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="O2" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="P2" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>981.4988339511696</v>
+      </c>
+      <c r="F3" t="n">
+        <v>981.4988339511696</v>
+      </c>
+      <c r="G3" t="n">
+        <v>981.4988339511696</v>
+      </c>
+      <c r="H3" t="n">
+        <v>981.4988339511696</v>
+      </c>
+      <c r="I3" t="n">
+        <v>981.4988339511696</v>
+      </c>
+      <c r="J3" t="n">
+        <v>981.4988339511696</v>
+      </c>
+      <c r="K3" t="n">
+        <v>981.4988339511696</v>
+      </c>
+      <c r="L3" t="n">
+        <v>981.4988339511696</v>
+      </c>
+      <c r="M3" t="n">
+        <v>981.4988339511696</v>
+      </c>
+      <c r="N3" t="n">
+        <v>981.4988339511696</v>
+      </c>
+      <c r="O3" t="n">
         <v>981.4988339511697</v>
       </c>
-      <c r="F3" t="n">
-        <v>981.4988339511697</v>
-      </c>
-      <c r="G3" t="n">
-        <v>981.4988339511697</v>
-      </c>
-      <c r="H3" t="n">
-        <v>981.4988339511697</v>
-      </c>
-      <c r="I3" t="n">
-        <v>981.4988339511697</v>
-      </c>
-      <c r="J3" t="n">
-        <v>981.4988339511697</v>
-      </c>
-      <c r="K3" t="n">
-        <v>981.4988339511697</v>
-      </c>
-      <c r="L3" t="n">
-        <v>981.4988339511697</v>
-      </c>
-      <c r="M3" t="n">
-        <v>981.4988339511697</v>
-      </c>
-      <c r="N3" t="n">
-        <v>981.4988339511697</v>
-      </c>
-      <c r="O3" t="n">
-        <v>981.4988339511694</v>
-      </c>
       <c r="P3" t="n">
-        <v>981.4988339511697</v>
+        <v>981.4988339511696</v>
       </c>
     </row>
     <row r="4">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776604</v>
       </c>
       <c r="C4" t="n">
         <v>241.0142888776591</v>
@@ -26814,22 +26814,22 @@
         <v>1203.153941782003</v>
       </c>
       <c r="K4" t="n">
-        <v>1203.153941782003</v>
+        <v>1203.153941782005</v>
       </c>
       <c r="L4" t="n">
-        <v>1203.153941782003</v>
+        <v>1203.153941782005</v>
       </c>
       <c r="M4" t="n">
+        <v>987.4515955793981</v>
+      </c>
+      <c r="N4" t="n">
+        <v>987.4515955793981</v>
+      </c>
+      <c r="O4" t="n">
         <v>987.4515955793979</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>987.4515955793979</v>
-      </c>
-      <c r="O4" t="n">
-        <v>987.451595579398</v>
-      </c>
-      <c r="P4" t="n">
-        <v>987.451595579398</v>
       </c>
     </row>
   </sheetData>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.73211379737702</v>
+        <v>24.7321137973765</v>
       </c>
       <c r="M2" t="n">
-        <v>31.07439721216099</v>
+        <v>31.07439721216155</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>981.4988339511697</v>
+        <v>981.4988339511696</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776604</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-6.896944088365655e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776606</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>746.4373067017389</v>
+        <v>746.4373067017375</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776604</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>181.8035404384331</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430225</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>392.3966171480263</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>174.2884486374746</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783932</v>
       </c>
     </row>
     <row r="3">
@@ -27458,10 +27458,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27473,10 +27473,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -27512,7 +27512,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>33.20744238336363</v>
+        <v>51.57109569575798</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27543,13 +27543,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>38.23792762219048</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>59.79494433408007</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>165.7716173848397</v>
       </c>
       <c r="X5" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>337.4020434725118</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -27695,13 +27695,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>89.58366692927339</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27740,19 +27740,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>24.72399559558897</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27783,13 +27783,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>37.22501299855256</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>31.76164565717804</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
@@ -27798,7 +27798,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27856,13 +27856,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>231.8333861825618</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27910,13 +27910,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>309.4547625938464</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
         <v>145.2236497783945</v>
@@ -27944,7 +27944,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>108.2008100984127</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -27995,10 +27995,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="10">
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29047,7 +29047,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29527,10 +29527,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>-5.118181434227155e-12</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>-7.105427357601002e-14</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29563,19 +29563,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-7.105427357601002e-14</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>-7.105427357601002e-14</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>-7.105427357601002e-14</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29761,13 +29761,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>-5.989875262457645e-12</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.73211379737702</v>
+        <v>24.73211379737643</v>
       </c>
       <c r="C34" t="n">
-        <v>24.73211379737702</v>
+        <v>24.73211379737643</v>
       </c>
       <c r="D34" t="n">
-        <v>24.73211379737702</v>
+        <v>24.73211379737643</v>
       </c>
       <c r="E34" t="n">
-        <v>24.73211379737702</v>
+        <v>24.73211379737643</v>
       </c>
       <c r="F34" t="n">
-        <v>24.73211379737702</v>
+        <v>24.73211379737643</v>
       </c>
       <c r="G34" t="n">
-        <v>24.73211379737702</v>
+        <v>24.73211379737643</v>
       </c>
       <c r="H34" t="n">
-        <v>24.73211379737702</v>
+        <v>24.73211379737643</v>
       </c>
       <c r="I34" t="n">
-        <v>24.73211379737702</v>
+        <v>24.73211379737643</v>
       </c>
       <c r="J34" t="n">
-        <v>24.73211379737702</v>
+        <v>24.73211379737643</v>
       </c>
       <c r="K34" t="n">
-        <v>24.73211379737702</v>
+        <v>24.73211379737643</v>
       </c>
       <c r="L34" t="n">
-        <v>24.73211379737702</v>
+        <v>24.73211379737643</v>
       </c>
       <c r="M34" t="n">
-        <v>24.73211379737702</v>
+        <v>24.73211379737643</v>
       </c>
       <c r="N34" t="n">
-        <v>24.73211379737702</v>
+        <v>24.73211379737643</v>
       </c>
       <c r="O34" t="n">
-        <v>24.73211379737702</v>
+        <v>24.73211379737643</v>
       </c>
       <c r="P34" t="n">
-        <v>24.73211379737702</v>
+        <v>24.73211379737643</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.73211379737702</v>
+        <v>24.73211379737643</v>
       </c>
       <c r="R34" t="n">
-        <v>24.73211379737702</v>
+        <v>24.73211379737643</v>
       </c>
       <c r="S34" t="n">
-        <v>24.73211379737702</v>
+        <v>24.73211379737643</v>
       </c>
       <c r="T34" t="n">
-        <v>24.73211379737702</v>
+        <v>24.73211379737643</v>
       </c>
       <c r="U34" t="n">
-        <v>24.73211379737702</v>
+        <v>24.73211379737643</v>
       </c>
       <c r="V34" t="n">
-        <v>24.73211379737702</v>
+        <v>24.73211379737643</v>
       </c>
       <c r="W34" t="n">
-        <v>24.73211379737702</v>
+        <v>24.73211379737643</v>
       </c>
       <c r="X34" t="n">
-        <v>24.73211379737702</v>
+        <v>24.73211379737643</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.73211379737702</v>
+        <v>24.73211379737643</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="C35" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="D35" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="E35" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="F35" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="G35" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="H35" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="I35" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="T35" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="U35" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="V35" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="W35" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="X35" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="Y35" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953799</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="C37" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="D37" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="E37" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="F37" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="G37" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="H37" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="I37" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="J37" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="K37" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="L37" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="M37" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="N37" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="O37" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="P37" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="Q37" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="R37" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="S37" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="T37" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="U37" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="V37" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="W37" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="X37" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="Y37" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953799</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="C38" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="D38" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="E38" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="F38" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="G38" t="n">
-        <v>55.80651100953827</v>
+        <v>55.80651100953742</v>
       </c>
       <c r="H38" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="I38" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="T38" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="U38" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="V38" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="W38" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="X38" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="Y38" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="C40" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="D40" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="E40" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="F40" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="G40" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="H40" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="I40" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="J40" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="K40" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="L40" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="M40" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="N40" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="O40" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="P40" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="Q40" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="R40" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="S40" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="T40" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="U40" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="V40" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="W40" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="X40" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="Y40" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="C41" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="D41" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="E41" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="F41" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="G41" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="H41" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="I41" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="T41" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="U41" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="V41" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="W41" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="X41" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="Y41" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="C43" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="D43" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="E43" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="F43" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="G43" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="H43" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="I43" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="J43" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="K43" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="L43" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="M43" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="N43" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="O43" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="P43" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="Q43" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="R43" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="S43" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="T43" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="U43" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="V43" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="W43" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="X43" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="Y43" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953798</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="C44" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="D44" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="E44" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="F44" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="G44" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="H44" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="I44" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="T44" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="U44" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="V44" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="W44" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="X44" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="Y44" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="C46" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="D46" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="E46" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="F46" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="G46" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="H46" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="I46" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="J46" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="K46" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="L46" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="M46" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="N46" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="O46" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="P46" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="Q46" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="R46" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="S46" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="T46" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="U46" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="V46" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="W46" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="X46" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
       <c r="Y46" t="n">
-        <v>55.806511009538</v>
+        <v>55.80651100953805</v>
       </c>
     </row>
   </sheetData>
@@ -31750,10 +31750,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.945723955582589</v>
+        <v>3.945723955582588</v>
       </c>
       <c r="H11" t="n">
-        <v>40.4091454601102</v>
+        <v>40.40914546011019</v>
       </c>
       <c r="I11" t="n">
         <v>152.1175227975979</v>
@@ -31768,25 +31768,25 @@
         <v>622.6648331205998</v>
       </c>
       <c r="M11" t="n">
-        <v>692.8346015156917</v>
+        <v>692.8346015156916</v>
       </c>
       <c r="N11" t="n">
-        <v>704.0453897044908</v>
+        <v>704.0453897044907</v>
       </c>
       <c r="O11" t="n">
-        <v>664.8100971211665</v>
+        <v>664.8100971211663</v>
       </c>
       <c r="P11" t="n">
         <v>567.4000369677211</v>
       </c>
       <c r="Q11" t="n">
-        <v>426.0937978084196</v>
+        <v>426.0937978084195</v>
       </c>
       <c r="R11" t="n">
         <v>247.855582424865</v>
       </c>
       <c r="S11" t="n">
-        <v>89.91318463783833</v>
+        <v>89.91318463783831</v>
       </c>
       <c r="T11" t="n">
         <v>17.27240661556279</v>
@@ -31838,7 +31838,7 @@
         <v>72.68647025015738</v>
       </c>
       <c r="J12" t="n">
-        <v>199.457230020209</v>
+        <v>199.4572300202089</v>
       </c>
       <c r="K12" t="n">
         <v>340.904175184719</v>
@@ -31853,10 +31853,10 @@
         <v>549.074522211985</v>
       </c>
       <c r="O12" t="n">
-        <v>502.2959174089538</v>
+        <v>502.2959174089537</v>
       </c>
       <c r="P12" t="n">
-        <v>403.1367569110003</v>
+        <v>403.1367569110002</v>
       </c>
       <c r="Q12" t="n">
         <v>269.4862458803287</v>
@@ -31868,7 +31868,7 @@
         <v>39.21365624323774</v>
       </c>
       <c r="T12" t="n">
-        <v>8.509409701897402</v>
+        <v>8.5094097018974</v>
       </c>
       <c r="U12" t="n">
         <v>0.1388913444270524</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.76991593007588</v>
+        <v>1.769915930075879</v>
       </c>
       <c r="H13" t="n">
         <v>15.73616163285647</v>
       </c>
       <c r="I13" t="n">
-        <v>53.22619906082738</v>
+        <v>53.22619906082737</v>
       </c>
       <c r="J13" t="n">
         <v>125.1330562563647</v>
@@ -31944,13 +31944,13 @@
         <v>79.58185627413907</v>
       </c>
       <c r="S13" t="n">
-        <v>30.84480761777691</v>
+        <v>30.8448076177769</v>
       </c>
       <c r="T13" t="n">
         <v>7.562368064869665</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09654086891322991</v>
+        <v>0.0965408689132299</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.945723955582589</v>
+        <v>3.945723955582588</v>
       </c>
       <c r="H14" t="n">
-        <v>40.4091454601102</v>
+        <v>40.40914546011019</v>
       </c>
       <c r="I14" t="n">
         <v>152.1175227975979</v>
@@ -32005,25 +32005,25 @@
         <v>622.6648331205998</v>
       </c>
       <c r="M14" t="n">
-        <v>692.8346015156917</v>
+        <v>692.8346015156916</v>
       </c>
       <c r="N14" t="n">
-        <v>704.0453897044908</v>
+        <v>704.0453897044907</v>
       </c>
       <c r="O14" t="n">
-        <v>664.8100971211665</v>
+        <v>664.8100971211663</v>
       </c>
       <c r="P14" t="n">
         <v>567.4000369677211</v>
       </c>
       <c r="Q14" t="n">
-        <v>426.0937978084196</v>
+        <v>426.0937978084195</v>
       </c>
       <c r="R14" t="n">
         <v>247.855582424865</v>
       </c>
       <c r="S14" t="n">
-        <v>89.91318463783833</v>
+        <v>89.91318463783831</v>
       </c>
       <c r="T14" t="n">
         <v>17.27240661556279</v>
@@ -32075,7 +32075,7 @@
         <v>72.68647025015738</v>
       </c>
       <c r="J15" t="n">
-        <v>199.457230020209</v>
+        <v>199.4572300202089</v>
       </c>
       <c r="K15" t="n">
         <v>340.904175184719</v>
@@ -32090,10 +32090,10 @@
         <v>549.074522211985</v>
       </c>
       <c r="O15" t="n">
-        <v>502.2959174089538</v>
+        <v>502.2959174089537</v>
       </c>
       <c r="P15" t="n">
-        <v>403.1367569110003</v>
+        <v>403.1367569110002</v>
       </c>
       <c r="Q15" t="n">
         <v>269.4862458803287</v>
@@ -32105,7 +32105,7 @@
         <v>39.21365624323774</v>
       </c>
       <c r="T15" t="n">
-        <v>8.509409701897402</v>
+        <v>8.5094097018974</v>
       </c>
       <c r="U15" t="n">
         <v>0.1388913444270524</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.76991593007588</v>
+        <v>1.769915930075879</v>
       </c>
       <c r="H16" t="n">
         <v>15.73616163285647</v>
       </c>
       <c r="I16" t="n">
-        <v>53.22619906082738</v>
+        <v>53.22619906082737</v>
       </c>
       <c r="J16" t="n">
         <v>125.1330562563647</v>
@@ -32181,13 +32181,13 @@
         <v>79.58185627413907</v>
       </c>
       <c r="S16" t="n">
-        <v>30.84480761777691</v>
+        <v>30.8448076177769</v>
       </c>
       <c r="T16" t="n">
         <v>7.562368064869665</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09654086891322991</v>
+        <v>0.0965408689132299</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,10 +32224,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.945723955582589</v>
+        <v>3.945723955582588</v>
       </c>
       <c r="H17" t="n">
-        <v>40.4091454601102</v>
+        <v>40.40914546011019</v>
       </c>
       <c r="I17" t="n">
         <v>152.1175227975979</v>
@@ -32242,25 +32242,25 @@
         <v>622.6648331205998</v>
       </c>
       <c r="M17" t="n">
-        <v>692.8346015156917</v>
+        <v>692.8346015156916</v>
       </c>
       <c r="N17" t="n">
-        <v>704.0453897044908</v>
+        <v>704.0453897044907</v>
       </c>
       <c r="O17" t="n">
-        <v>664.8100971211665</v>
+        <v>664.8100971211663</v>
       </c>
       <c r="P17" t="n">
         <v>567.4000369677211</v>
       </c>
       <c r="Q17" t="n">
-        <v>426.0937978084196</v>
+        <v>426.0937978084195</v>
       </c>
       <c r="R17" t="n">
         <v>247.855582424865</v>
       </c>
       <c r="S17" t="n">
-        <v>89.91318463783833</v>
+        <v>89.91318463783831</v>
       </c>
       <c r="T17" t="n">
         <v>17.27240661556279</v>
@@ -32312,7 +32312,7 @@
         <v>72.68647025015738</v>
       </c>
       <c r="J18" t="n">
-        <v>199.457230020209</v>
+        <v>199.4572300202089</v>
       </c>
       <c r="K18" t="n">
         <v>340.904175184719</v>
@@ -32327,10 +32327,10 @@
         <v>549.074522211985</v>
       </c>
       <c r="O18" t="n">
-        <v>502.2959174089538</v>
+        <v>502.2959174089537</v>
       </c>
       <c r="P18" t="n">
-        <v>403.1367569110003</v>
+        <v>403.1367569110002</v>
       </c>
       <c r="Q18" t="n">
         <v>269.4862458803287</v>
@@ -32342,7 +32342,7 @@
         <v>39.21365624323774</v>
       </c>
       <c r="T18" t="n">
-        <v>8.509409701897402</v>
+        <v>8.5094097018974</v>
       </c>
       <c r="U18" t="n">
         <v>0.1388913444270524</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.76991593007588</v>
+        <v>1.769915930075879</v>
       </c>
       <c r="H19" t="n">
         <v>15.73616163285647</v>
       </c>
       <c r="I19" t="n">
-        <v>53.22619906082738</v>
+        <v>53.22619906082737</v>
       </c>
       <c r="J19" t="n">
         <v>125.1330562563647</v>
@@ -32418,13 +32418,13 @@
         <v>79.58185627413907</v>
       </c>
       <c r="S19" t="n">
-        <v>30.84480761777691</v>
+        <v>30.8448076177769</v>
       </c>
       <c r="T19" t="n">
         <v>7.562368064869665</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09654086891322991</v>
+        <v>0.0965408689132299</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,10 +32461,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.945723955582589</v>
+        <v>3.945723955582588</v>
       </c>
       <c r="H20" t="n">
-        <v>40.4091454601102</v>
+        <v>40.40914546011019</v>
       </c>
       <c r="I20" t="n">
         <v>152.1175227975979</v>
@@ -32479,25 +32479,25 @@
         <v>622.6648331205998</v>
       </c>
       <c r="M20" t="n">
-        <v>692.8346015156917</v>
+        <v>692.8346015156916</v>
       </c>
       <c r="N20" t="n">
-        <v>704.0453897044908</v>
+        <v>704.0453897044907</v>
       </c>
       <c r="O20" t="n">
-        <v>664.8100971211665</v>
+        <v>664.8100971211663</v>
       </c>
       <c r="P20" t="n">
         <v>567.4000369677211</v>
       </c>
       <c r="Q20" t="n">
-        <v>426.0937978084196</v>
+        <v>426.0937978084195</v>
       </c>
       <c r="R20" t="n">
         <v>247.855582424865</v>
       </c>
       <c r="S20" t="n">
-        <v>89.91318463783833</v>
+        <v>89.91318463783831</v>
       </c>
       <c r="T20" t="n">
         <v>17.27240661556279</v>
@@ -32549,7 +32549,7 @@
         <v>72.68647025015738</v>
       </c>
       <c r="J21" t="n">
-        <v>199.457230020209</v>
+        <v>199.4572300202089</v>
       </c>
       <c r="K21" t="n">
         <v>340.904175184719</v>
@@ -32564,10 +32564,10 @@
         <v>549.074522211985</v>
       </c>
       <c r="O21" t="n">
-        <v>502.2959174089538</v>
+        <v>502.2959174089537</v>
       </c>
       <c r="P21" t="n">
-        <v>403.1367569110003</v>
+        <v>403.1367569110002</v>
       </c>
       <c r="Q21" t="n">
         <v>269.4862458803287</v>
@@ -32579,7 +32579,7 @@
         <v>39.21365624323774</v>
       </c>
       <c r="T21" t="n">
-        <v>8.509409701897402</v>
+        <v>8.5094097018974</v>
       </c>
       <c r="U21" t="n">
         <v>0.1388913444270524</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.76991593007588</v>
+        <v>1.769915930075879</v>
       </c>
       <c r="H22" t="n">
         <v>15.73616163285647</v>
       </c>
       <c r="I22" t="n">
-        <v>53.22619906082738</v>
+        <v>53.22619906082737</v>
       </c>
       <c r="J22" t="n">
         <v>125.1330562563647</v>
@@ -32655,13 +32655,13 @@
         <v>79.58185627413907</v>
       </c>
       <c r="S22" t="n">
-        <v>30.84480761777691</v>
+        <v>30.8448076177769</v>
       </c>
       <c r="T22" t="n">
         <v>7.562368064869665</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09654086891322991</v>
+        <v>0.0965408689132299</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,10 +32698,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.945723955582589</v>
+        <v>3.945723955582588</v>
       </c>
       <c r="H23" t="n">
-        <v>40.4091454601102</v>
+        <v>40.40914546011019</v>
       </c>
       <c r="I23" t="n">
         <v>152.1175227975979</v>
@@ -32716,25 +32716,25 @@
         <v>622.6648331205998</v>
       </c>
       <c r="M23" t="n">
-        <v>692.8346015156917</v>
+        <v>692.8346015156916</v>
       </c>
       <c r="N23" t="n">
-        <v>704.0453897044908</v>
+        <v>704.0453897044907</v>
       </c>
       <c r="O23" t="n">
-        <v>664.8100971211665</v>
+        <v>664.8100971211663</v>
       </c>
       <c r="P23" t="n">
         <v>567.4000369677211</v>
       </c>
       <c r="Q23" t="n">
-        <v>426.0937978084196</v>
+        <v>426.0937978084195</v>
       </c>
       <c r="R23" t="n">
         <v>247.855582424865</v>
       </c>
       <c r="S23" t="n">
-        <v>89.91318463783833</v>
+        <v>89.91318463783831</v>
       </c>
       <c r="T23" t="n">
         <v>17.27240661556279</v>
@@ -32786,7 +32786,7 @@
         <v>72.68647025015738</v>
       </c>
       <c r="J24" t="n">
-        <v>199.457230020209</v>
+        <v>199.4572300202089</v>
       </c>
       <c r="K24" t="n">
         <v>340.904175184719</v>
@@ -32801,10 +32801,10 @@
         <v>549.074522211985</v>
       </c>
       <c r="O24" t="n">
-        <v>502.2959174089538</v>
+        <v>502.2959174089537</v>
       </c>
       <c r="P24" t="n">
-        <v>403.1367569110003</v>
+        <v>403.1367569110002</v>
       </c>
       <c r="Q24" t="n">
         <v>269.4862458803287</v>
@@ -32816,7 +32816,7 @@
         <v>39.21365624323774</v>
       </c>
       <c r="T24" t="n">
-        <v>8.509409701897402</v>
+        <v>8.5094097018974</v>
       </c>
       <c r="U24" t="n">
         <v>0.1388913444270524</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.76991593007588</v>
+        <v>1.769915930075879</v>
       </c>
       <c r="H25" t="n">
         <v>15.73616163285647</v>
       </c>
       <c r="I25" t="n">
-        <v>53.22619906082738</v>
+        <v>53.22619906082737</v>
       </c>
       <c r="J25" t="n">
         <v>125.1330562563647</v>
@@ -32892,13 +32892,13 @@
         <v>79.58185627413907</v>
       </c>
       <c r="S25" t="n">
-        <v>30.84480761777691</v>
+        <v>30.8448076177769</v>
       </c>
       <c r="T25" t="n">
         <v>7.562368064869665</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09654086891322991</v>
+        <v>0.0965408689132299</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,10 +32935,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.945723955582589</v>
+        <v>3.945723955582588</v>
       </c>
       <c r="H26" t="n">
-        <v>40.4091454601102</v>
+        <v>40.40914546011019</v>
       </c>
       <c r="I26" t="n">
         <v>152.1175227975979</v>
@@ -32953,25 +32953,25 @@
         <v>622.6648331205998</v>
       </c>
       <c r="M26" t="n">
-        <v>692.8346015156917</v>
+        <v>692.8346015156916</v>
       </c>
       <c r="N26" t="n">
-        <v>704.0453897044908</v>
+        <v>704.0453897044907</v>
       </c>
       <c r="O26" t="n">
-        <v>664.8100971211665</v>
+        <v>664.8100971211663</v>
       </c>
       <c r="P26" t="n">
         <v>567.4000369677211</v>
       </c>
       <c r="Q26" t="n">
-        <v>426.0937978084196</v>
+        <v>426.0937978084195</v>
       </c>
       <c r="R26" t="n">
         <v>247.855582424865</v>
       </c>
       <c r="S26" t="n">
-        <v>89.91318463783833</v>
+        <v>89.91318463783831</v>
       </c>
       <c r="T26" t="n">
         <v>17.27240661556279</v>
@@ -33023,7 +33023,7 @@
         <v>72.68647025015738</v>
       </c>
       <c r="J27" t="n">
-        <v>199.457230020209</v>
+        <v>199.4572300202089</v>
       </c>
       <c r="K27" t="n">
         <v>340.904175184719</v>
@@ -33038,10 +33038,10 @@
         <v>549.074522211985</v>
       </c>
       <c r="O27" t="n">
-        <v>502.2959174089538</v>
+        <v>502.2959174089537</v>
       </c>
       <c r="P27" t="n">
-        <v>403.1367569110003</v>
+        <v>403.1367569110002</v>
       </c>
       <c r="Q27" t="n">
         <v>269.4862458803287</v>
@@ -33053,7 +33053,7 @@
         <v>39.21365624323774</v>
       </c>
       <c r="T27" t="n">
-        <v>8.509409701897402</v>
+        <v>8.5094097018974</v>
       </c>
       <c r="U27" t="n">
         <v>0.1388913444270524</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.76991593007588</v>
+        <v>1.769915930075879</v>
       </c>
       <c r="H28" t="n">
         <v>15.73616163285647</v>
       </c>
       <c r="I28" t="n">
-        <v>53.22619906082738</v>
+        <v>53.22619906082737</v>
       </c>
       <c r="J28" t="n">
         <v>125.1330562563647</v>
@@ -33129,13 +33129,13 @@
         <v>79.58185627413907</v>
       </c>
       <c r="S28" t="n">
-        <v>30.84480761777691</v>
+        <v>30.8448076177769</v>
       </c>
       <c r="T28" t="n">
         <v>7.562368064869665</v>
       </c>
       <c r="U28" t="n">
-        <v>0.09654086891322991</v>
+        <v>0.0965408689132299</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,10 +33172,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.945723955582589</v>
+        <v>3.945723955582588</v>
       </c>
       <c r="H29" t="n">
-        <v>40.4091454601102</v>
+        <v>40.40914546011019</v>
       </c>
       <c r="I29" t="n">
         <v>152.1175227975979</v>
@@ -33190,25 +33190,25 @@
         <v>622.6648331205998</v>
       </c>
       <c r="M29" t="n">
-        <v>692.8346015156917</v>
+        <v>692.8346015156916</v>
       </c>
       <c r="N29" t="n">
-        <v>704.0453897044908</v>
+        <v>704.0453897044907</v>
       </c>
       <c r="O29" t="n">
-        <v>664.8100971211665</v>
+        <v>664.8100971211663</v>
       </c>
       <c r="P29" t="n">
         <v>567.4000369677211</v>
       </c>
       <c r="Q29" t="n">
-        <v>426.0937978084196</v>
+        <v>426.0937978084195</v>
       </c>
       <c r="R29" t="n">
         <v>247.855582424865</v>
       </c>
       <c r="S29" t="n">
-        <v>89.91318463783833</v>
+        <v>89.91318463783831</v>
       </c>
       <c r="T29" t="n">
         <v>17.27240661556279</v>
@@ -33260,7 +33260,7 @@
         <v>72.68647025015738</v>
       </c>
       <c r="J30" t="n">
-        <v>199.457230020209</v>
+        <v>199.4572300202089</v>
       </c>
       <c r="K30" t="n">
         <v>340.904175184719</v>
@@ -33275,10 +33275,10 @@
         <v>549.074522211985</v>
       </c>
       <c r="O30" t="n">
-        <v>502.2959174089538</v>
+        <v>502.2959174089537</v>
       </c>
       <c r="P30" t="n">
-        <v>403.1367569110003</v>
+        <v>403.1367569110002</v>
       </c>
       <c r="Q30" t="n">
         <v>269.4862458803287</v>
@@ -33290,7 +33290,7 @@
         <v>39.21365624323774</v>
       </c>
       <c r="T30" t="n">
-        <v>8.509409701897402</v>
+        <v>8.5094097018974</v>
       </c>
       <c r="U30" t="n">
         <v>0.1388913444270524</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.76991593007588</v>
+        <v>1.769915930075879</v>
       </c>
       <c r="H31" t="n">
         <v>15.73616163285647</v>
       </c>
       <c r="I31" t="n">
-        <v>53.22619906082738</v>
+        <v>53.22619906082737</v>
       </c>
       <c r="J31" t="n">
         <v>125.1330562563647</v>
@@ -33366,13 +33366,13 @@
         <v>79.58185627413907</v>
       </c>
       <c r="S31" t="n">
-        <v>30.84480761777691</v>
+        <v>30.8448076177769</v>
       </c>
       <c r="T31" t="n">
         <v>7.562368064869665</v>
       </c>
       <c r="U31" t="n">
-        <v>0.09654086891322991</v>
+        <v>0.0965408689132299</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,10 +33409,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.945723955582589</v>
+        <v>3.945723955582588</v>
       </c>
       <c r="H32" t="n">
-        <v>40.4091454601102</v>
+        <v>40.40914546011019</v>
       </c>
       <c r="I32" t="n">
         <v>152.1175227975979</v>
@@ -33427,25 +33427,25 @@
         <v>622.6648331205998</v>
       </c>
       <c r="M32" t="n">
-        <v>692.8346015156917</v>
+        <v>692.8346015156916</v>
       </c>
       <c r="N32" t="n">
-        <v>704.0453897044908</v>
+        <v>704.0453897044907</v>
       </c>
       <c r="O32" t="n">
-        <v>664.8100971211665</v>
+        <v>664.8100971211663</v>
       </c>
       <c r="P32" t="n">
         <v>567.4000369677211</v>
       </c>
       <c r="Q32" t="n">
-        <v>426.0937978084196</v>
+        <v>426.0937978084195</v>
       </c>
       <c r="R32" t="n">
         <v>247.855582424865</v>
       </c>
       <c r="S32" t="n">
-        <v>89.91318463783833</v>
+        <v>89.91318463783831</v>
       </c>
       <c r="T32" t="n">
         <v>17.27240661556279</v>
@@ -33497,7 +33497,7 @@
         <v>72.68647025015738</v>
       </c>
       <c r="J33" t="n">
-        <v>199.457230020209</v>
+        <v>199.4572300202089</v>
       </c>
       <c r="K33" t="n">
         <v>340.904175184719</v>
@@ -33512,10 +33512,10 @@
         <v>549.074522211985</v>
       </c>
       <c r="O33" t="n">
-        <v>502.2959174089538</v>
+        <v>502.2959174089537</v>
       </c>
       <c r="P33" t="n">
-        <v>403.1367569110003</v>
+        <v>403.1367569110002</v>
       </c>
       <c r="Q33" t="n">
         <v>269.4862458803287</v>
@@ -33527,7 +33527,7 @@
         <v>39.21365624323774</v>
       </c>
       <c r="T33" t="n">
-        <v>8.509409701897402</v>
+        <v>8.5094097018974</v>
       </c>
       <c r="U33" t="n">
         <v>0.1388913444270524</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.76991593007588</v>
+        <v>1.769915930075879</v>
       </c>
       <c r="H34" t="n">
         <v>15.73616163285647</v>
       </c>
       <c r="I34" t="n">
-        <v>53.22619906082738</v>
+        <v>53.22619906082737</v>
       </c>
       <c r="J34" t="n">
         <v>125.1330562563647</v>
@@ -33603,13 +33603,13 @@
         <v>79.58185627413907</v>
       </c>
       <c r="S34" t="n">
-        <v>30.84480761777691</v>
+        <v>30.8448076177769</v>
       </c>
       <c r="T34" t="n">
         <v>7.562368064869665</v>
       </c>
       <c r="U34" t="n">
-        <v>0.09654086891322991</v>
+        <v>0.0965408689132299</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,10 +33646,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.945723955582589</v>
+        <v>3.945723955582588</v>
       </c>
       <c r="H35" t="n">
-        <v>40.4091454601102</v>
+        <v>40.40914546011019</v>
       </c>
       <c r="I35" t="n">
         <v>152.1175227975979</v>
@@ -33664,25 +33664,25 @@
         <v>622.6648331205998</v>
       </c>
       <c r="M35" t="n">
-        <v>692.8346015156917</v>
+        <v>692.8346015156916</v>
       </c>
       <c r="N35" t="n">
-        <v>704.0453897044908</v>
+        <v>704.0453897044907</v>
       </c>
       <c r="O35" t="n">
-        <v>664.8100971211665</v>
+        <v>664.8100971211663</v>
       </c>
       <c r="P35" t="n">
         <v>567.4000369677211</v>
       </c>
       <c r="Q35" t="n">
-        <v>426.0937978084196</v>
+        <v>426.0937978084195</v>
       </c>
       <c r="R35" t="n">
         <v>247.855582424865</v>
       </c>
       <c r="S35" t="n">
-        <v>89.91318463783833</v>
+        <v>89.91318463783831</v>
       </c>
       <c r="T35" t="n">
         <v>17.27240661556279</v>
@@ -33734,7 +33734,7 @@
         <v>72.68647025015738</v>
       </c>
       <c r="J36" t="n">
-        <v>199.457230020209</v>
+        <v>199.4572300202089</v>
       </c>
       <c r="K36" t="n">
         <v>340.904175184719</v>
@@ -33749,10 +33749,10 @@
         <v>549.074522211985</v>
       </c>
       <c r="O36" t="n">
-        <v>502.2959174089538</v>
+        <v>502.2959174089537</v>
       </c>
       <c r="P36" t="n">
-        <v>403.1367569110003</v>
+        <v>403.1367569110002</v>
       </c>
       <c r="Q36" t="n">
         <v>269.4862458803287</v>
@@ -33764,7 +33764,7 @@
         <v>39.21365624323774</v>
       </c>
       <c r="T36" t="n">
-        <v>8.509409701897402</v>
+        <v>8.5094097018974</v>
       </c>
       <c r="U36" t="n">
         <v>0.1388913444270524</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.76991593007588</v>
+        <v>1.769915930075879</v>
       </c>
       <c r="H37" t="n">
         <v>15.73616163285647</v>
       </c>
       <c r="I37" t="n">
-        <v>53.22619906082738</v>
+        <v>53.22619906082737</v>
       </c>
       <c r="J37" t="n">
         <v>125.1330562563647</v>
@@ -33840,13 +33840,13 @@
         <v>79.58185627413907</v>
       </c>
       <c r="S37" t="n">
-        <v>30.84480761777691</v>
+        <v>30.8448076177769</v>
       </c>
       <c r="T37" t="n">
         <v>7.562368064869665</v>
       </c>
       <c r="U37" t="n">
-        <v>0.09654086891322991</v>
+        <v>0.0965408689132299</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,10 +33883,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.945723955582589</v>
+        <v>3.945723955582588</v>
       </c>
       <c r="H38" t="n">
-        <v>40.4091454601102</v>
+        <v>40.40914546011019</v>
       </c>
       <c r="I38" t="n">
         <v>152.1175227975979</v>
@@ -33901,25 +33901,25 @@
         <v>622.6648331205998</v>
       </c>
       <c r="M38" t="n">
-        <v>692.8346015156917</v>
+        <v>692.8346015156916</v>
       </c>
       <c r="N38" t="n">
-        <v>704.0453897044908</v>
+        <v>704.0453897044907</v>
       </c>
       <c r="O38" t="n">
-        <v>664.8100971211665</v>
+        <v>664.8100971211663</v>
       </c>
       <c r="P38" t="n">
         <v>567.4000369677211</v>
       </c>
       <c r="Q38" t="n">
-        <v>426.0937978084196</v>
+        <v>426.0937978084195</v>
       </c>
       <c r="R38" t="n">
         <v>247.855582424865</v>
       </c>
       <c r="S38" t="n">
-        <v>89.91318463783833</v>
+        <v>89.91318463783831</v>
       </c>
       <c r="T38" t="n">
         <v>17.27240661556279</v>
@@ -33971,7 +33971,7 @@
         <v>72.68647025015738</v>
       </c>
       <c r="J39" t="n">
-        <v>199.457230020209</v>
+        <v>199.4572300202089</v>
       </c>
       <c r="K39" t="n">
         <v>340.904175184719</v>
@@ -33986,10 +33986,10 @@
         <v>549.074522211985</v>
       </c>
       <c r="O39" t="n">
-        <v>502.2959174089538</v>
+        <v>502.2959174089537</v>
       </c>
       <c r="P39" t="n">
-        <v>403.1367569110003</v>
+        <v>403.1367569110002</v>
       </c>
       <c r="Q39" t="n">
         <v>269.4862458803287</v>
@@ -34001,7 +34001,7 @@
         <v>39.21365624323774</v>
       </c>
       <c r="T39" t="n">
-        <v>8.509409701897402</v>
+        <v>8.5094097018974</v>
       </c>
       <c r="U39" t="n">
         <v>0.1388913444270524</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.76991593007588</v>
+        <v>1.769915930075879</v>
       </c>
       <c r="H40" t="n">
         <v>15.73616163285647</v>
       </c>
       <c r="I40" t="n">
-        <v>53.22619906082738</v>
+        <v>53.22619906082737</v>
       </c>
       <c r="J40" t="n">
         <v>125.1330562563647</v>
@@ -34077,13 +34077,13 @@
         <v>79.58185627413907</v>
       </c>
       <c r="S40" t="n">
-        <v>30.84480761777691</v>
+        <v>30.8448076177769</v>
       </c>
       <c r="T40" t="n">
         <v>7.562368064869665</v>
       </c>
       <c r="U40" t="n">
-        <v>0.09654086891322991</v>
+        <v>0.0965408689132299</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,10 +34120,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.945723955582588</v>
+        <v>3.945723955582589</v>
       </c>
       <c r="H41" t="n">
-        <v>40.40914546011019</v>
+        <v>40.4091454601102</v>
       </c>
       <c r="I41" t="n">
         <v>152.1175227975979</v>
@@ -34132,31 +34132,31 @@
         <v>334.888388575128</v>
       </c>
       <c r="K41" t="n">
-        <v>501.910883614939</v>
+        <v>501.9108836149391</v>
       </c>
       <c r="L41" t="n">
-        <v>622.6648331205997</v>
+        <v>622.6648331205998</v>
       </c>
       <c r="M41" t="n">
-        <v>692.8346015156916</v>
+        <v>692.8346015156917</v>
       </c>
       <c r="N41" t="n">
-        <v>704.0453897044906</v>
+        <v>704.0453897044908</v>
       </c>
       <c r="O41" t="n">
-        <v>664.8100971211662</v>
+        <v>664.8100971211665</v>
       </c>
       <c r="P41" t="n">
-        <v>567.400036967721</v>
+        <v>567.4000369677211</v>
       </c>
       <c r="Q41" t="n">
-        <v>426.0937978084195</v>
+        <v>426.0937978084196</v>
       </c>
       <c r="R41" t="n">
-        <v>247.8555824248649</v>
+        <v>247.855582424865</v>
       </c>
       <c r="S41" t="n">
-        <v>89.91318463783831</v>
+        <v>89.91318463783833</v>
       </c>
       <c r="T41" t="n">
         <v>17.27240661556279</v>
@@ -34205,28 +34205,28 @@
         <v>20.38924936189128</v>
       </c>
       <c r="I42" t="n">
-        <v>72.68647025015737</v>
+        <v>72.68647025015738</v>
       </c>
       <c r="J42" t="n">
-        <v>199.4572300202089</v>
+        <v>199.457230020209</v>
       </c>
       <c r="K42" t="n">
         <v>340.904175184719</v>
       </c>
       <c r="L42" t="n">
-        <v>458.3877337240816</v>
+        <v>458.3877337240817</v>
       </c>
       <c r="M42" t="n">
-        <v>534.9168645033873</v>
+        <v>534.9168645033874</v>
       </c>
       <c r="N42" t="n">
-        <v>549.0745222119849</v>
+        <v>549.074522211985</v>
       </c>
       <c r="O42" t="n">
-        <v>502.2959174089536</v>
+        <v>502.2959174089538</v>
       </c>
       <c r="P42" t="n">
-        <v>403.1367569110002</v>
+        <v>403.1367569110003</v>
       </c>
       <c r="Q42" t="n">
         <v>269.4862458803287</v>
@@ -34238,10 +34238,10 @@
         <v>39.21365624323774</v>
       </c>
       <c r="T42" t="n">
-        <v>8.5094097018974</v>
+        <v>8.509409701897402</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1388913444270523</v>
+        <v>0.1388913444270524</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.769915930075879</v>
+        <v>1.76991593007588</v>
       </c>
       <c r="H43" t="n">
-        <v>15.73616163285646</v>
+        <v>15.73616163285647</v>
       </c>
       <c r="I43" t="n">
-        <v>53.22619906082736</v>
+        <v>53.22619906082738</v>
       </c>
       <c r="J43" t="n">
         <v>125.1330562563647</v>
@@ -34296,10 +34296,10 @@
         <v>263.1382283678267</v>
       </c>
       <c r="M43" t="n">
-        <v>277.4423671118034</v>
+        <v>277.4423671118035</v>
       </c>
       <c r="N43" t="n">
-        <v>270.8454077360663</v>
+        <v>270.8454077360664</v>
       </c>
       <c r="O43" t="n">
         <v>250.1695716438162</v>
@@ -34311,16 +34311,16 @@
         <v>148.2063239266266</v>
       </c>
       <c r="R43" t="n">
-        <v>79.58185627413906</v>
+        <v>79.58185627413907</v>
       </c>
       <c r="S43" t="n">
-        <v>30.8448076177769</v>
+        <v>30.84480761777691</v>
       </c>
       <c r="T43" t="n">
-        <v>7.562368064869664</v>
+        <v>7.562368064869665</v>
       </c>
       <c r="U43" t="n">
-        <v>0.09654086891322988</v>
+        <v>0.09654086891322991</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,10 +34357,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.945723955582589</v>
+        <v>3.945723955582588</v>
       </c>
       <c r="H44" t="n">
-        <v>40.4091454601102</v>
+        <v>40.40914546011019</v>
       </c>
       <c r="I44" t="n">
         <v>152.1175227975979</v>
@@ -34375,25 +34375,25 @@
         <v>622.6648331205998</v>
       </c>
       <c r="M44" t="n">
-        <v>692.8346015156917</v>
+        <v>692.8346015156916</v>
       </c>
       <c r="N44" t="n">
-        <v>704.0453897044908</v>
+        <v>704.0453897044907</v>
       </c>
       <c r="O44" t="n">
-        <v>664.8100971211665</v>
+        <v>664.8100971211663</v>
       </c>
       <c r="P44" t="n">
         <v>567.4000369677211</v>
       </c>
       <c r="Q44" t="n">
-        <v>426.0937978084196</v>
+        <v>426.0937978084195</v>
       </c>
       <c r="R44" t="n">
         <v>247.855582424865</v>
       </c>
       <c r="S44" t="n">
-        <v>89.91318463783833</v>
+        <v>89.91318463783831</v>
       </c>
       <c r="T44" t="n">
         <v>17.27240661556279</v>
@@ -34445,7 +34445,7 @@
         <v>72.68647025015738</v>
       </c>
       <c r="J45" t="n">
-        <v>199.457230020209</v>
+        <v>199.4572300202089</v>
       </c>
       <c r="K45" t="n">
         <v>340.904175184719</v>
@@ -34460,10 +34460,10 @@
         <v>549.074522211985</v>
       </c>
       <c r="O45" t="n">
-        <v>502.2959174089538</v>
+        <v>502.2959174089537</v>
       </c>
       <c r="P45" t="n">
-        <v>403.1367569110003</v>
+        <v>403.1367569110002</v>
       </c>
       <c r="Q45" t="n">
         <v>269.4862458803287</v>
@@ -34475,7 +34475,7 @@
         <v>39.21365624323774</v>
       </c>
       <c r="T45" t="n">
-        <v>8.509409701897402</v>
+        <v>8.5094097018974</v>
       </c>
       <c r="U45" t="n">
         <v>0.1388913444270524</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.76991593007588</v>
+        <v>1.769915930075879</v>
       </c>
       <c r="H46" t="n">
         <v>15.73616163285647</v>
       </c>
       <c r="I46" t="n">
-        <v>53.22619906082738</v>
+        <v>53.22619906082737</v>
       </c>
       <c r="J46" t="n">
         <v>125.1330562563647</v>
@@ -34551,13 +34551,13 @@
         <v>79.58185627413907</v>
       </c>
       <c r="S46" t="n">
-        <v>30.84480761777691</v>
+        <v>30.8448076177769</v>
       </c>
       <c r="T46" t="n">
         <v>7.562368064869665</v>
       </c>
       <c r="U46" t="n">
-        <v>0.09654086891322991</v>
+        <v>0.0965408689132299</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,7 +34699,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>104.0555615261896</v>
       </c>
       <c r="L2" t="n">
         <v>181.8947995804632</v>
@@ -34778,22 +34778,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776604</v>
       </c>
       <c r="N3" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776604</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>240.0046611659718</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
       <c r="O6" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35258,10 +35258,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="N9" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N9" t="n">
-        <v>240.0046611659691</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>322.9390992205155</v>
+        <v>153.8424840484417</v>
       </c>
       <c r="K11" t="n">
-        <v>605.9664451411234</v>
+        <v>281.8210325699585</v>
       </c>
       <c r="L11" t="n">
-        <v>386.8984181506126</v>
+        <v>804.559632701063</v>
       </c>
       <c r="M11" t="n">
-        <v>912.0019017812515</v>
+        <v>689.9501272618586</v>
       </c>
       <c r="N11" t="n">
-        <v>548.6302429347193</v>
+        <v>911.979250519884</v>
       </c>
       <c r="O11" t="n">
-        <v>815.512066962225</v>
+        <v>815.5120669622249</v>
       </c>
       <c r="P11" t="n">
         <v>657.9657493839343</v>
       </c>
       <c r="Q11" t="n">
-        <v>416.1030985938748</v>
+        <v>416.1030985938747</v>
       </c>
       <c r="R11" t="n">
-        <v>97.98646448371531</v>
+        <v>32.27004461073284</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>142.2414528067443</v>
+        <v>198.7106386939511</v>
       </c>
       <c r="K12" t="n">
-        <v>467.5279732229386</v>
+        <v>203.06273621036</v>
       </c>
       <c r="L12" t="n">
         <v>319.8333539442075</v>
@@ -35504,13 +35504,13 @@
         <v>359.6996729645093</v>
       </c>
       <c r="P12" t="n">
-        <v>269.1623494966701</v>
+        <v>297.9996701808399</v>
       </c>
       <c r="Q12" t="n">
-        <v>129.5044717943072</v>
+        <v>339.5817595301563</v>
       </c>
       <c r="R12" t="n">
-        <v>30.9185572946471</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>31.77387613969191</v>
+        <v>31.77387613969189</v>
       </c>
       <c r="K13" t="n">
-        <v>183.3625589592966</v>
+        <v>183.3625589592965</v>
       </c>
       <c r="L13" t="n">
         <v>290.7282536281429</v>
@@ -35586,7 +35586,7 @@
         <v>211.3418459351616</v>
       </c>
       <c r="Q13" t="n">
-        <v>62.04428067493224</v>
+        <v>62.04428067493221</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>153.8424840484417</v>
+        <v>322.9390992205155</v>
       </c>
       <c r="K14" t="n">
-        <v>605.9664451411234</v>
+        <v>605.9664451411232</v>
       </c>
       <c r="L14" t="n">
         <v>804.559632701063</v>
       </c>
       <c r="M14" t="n">
-        <v>912.0019017812515</v>
+        <v>912.0019017812514</v>
       </c>
       <c r="N14" t="n">
-        <v>474.6323261078999</v>
+        <v>474.6323261078998</v>
       </c>
       <c r="O14" t="n">
-        <v>815.512066962225</v>
+        <v>793.6474774100773</v>
       </c>
       <c r="P14" t="n">
-        <v>657.9657493839343</v>
+        <v>336.1670412124516</v>
       </c>
       <c r="Q14" t="n">
-        <v>241.5364160423185</v>
+        <v>416.1030985938747</v>
       </c>
       <c r="R14" t="n">
-        <v>97.98646448371531</v>
+        <v>97.98646448371528</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>198.7106386939511</v>
       </c>
       <c r="K15" t="n">
-        <v>411.0587873357318</v>
+        <v>203.06273621036</v>
       </c>
       <c r="L15" t="n">
         <v>319.8333539442075</v>
@@ -35741,13 +35741,13 @@
         <v>359.6996729645093</v>
       </c>
       <c r="P15" t="n">
-        <v>269.1623494966701</v>
+        <v>297.9996701808399</v>
       </c>
       <c r="Q15" t="n">
-        <v>129.5044717943072</v>
+        <v>339.5817595301563</v>
       </c>
       <c r="R15" t="n">
-        <v>30.9185572946471</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>31.77387613969191</v>
+        <v>31.77387613969189</v>
       </c>
       <c r="K16" t="n">
-        <v>183.3625589592966</v>
+        <v>183.3625589592965</v>
       </c>
       <c r="L16" t="n">
         <v>290.7282536281429</v>
@@ -35823,7 +35823,7 @@
         <v>211.3418459351616</v>
       </c>
       <c r="Q16" t="n">
-        <v>62.04428067493224</v>
+        <v>62.04428067493221</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>322.9390992205155</v>
       </c>
       <c r="K17" t="n">
-        <v>281.8210325699586</v>
+        <v>605.9664451411232</v>
       </c>
       <c r="L17" t="n">
-        <v>797.208356629445</v>
+        <v>804.559632701063</v>
       </c>
       <c r="M17" t="n">
-        <v>462.488368288419</v>
+        <v>912.0019017812514</v>
       </c>
       <c r="N17" t="n">
-        <v>911.9792505198841</v>
+        <v>474.6323261078998</v>
       </c>
       <c r="O17" t="n">
-        <v>815.512066962225</v>
+        <v>471.8487692385946</v>
       </c>
       <c r="P17" t="n">
         <v>657.9657493839343</v>
       </c>
       <c r="Q17" t="n">
-        <v>416.1030985938748</v>
+        <v>416.1030985938747</v>
       </c>
       <c r="R17" t="n">
-        <v>97.98646448371531</v>
+        <v>97.98646448371528</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>142.2414528067443</v>
+        <v>198.7106386939511</v>
       </c>
       <c r="K18" t="n">
-        <v>467.5279732229386</v>
+        <v>203.06273621036</v>
       </c>
       <c r="L18" t="n">
         <v>319.8333539442075</v>
@@ -35978,13 +35978,13 @@
         <v>359.6996729645093</v>
       </c>
       <c r="P18" t="n">
-        <v>269.1623494966701</v>
+        <v>508.0769579166891</v>
       </c>
       <c r="Q18" t="n">
         <v>129.5044717943072</v>
       </c>
       <c r="R18" t="n">
-        <v>30.9185572946471</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>31.77387613969191</v>
+        <v>31.77387613969189</v>
       </c>
       <c r="K19" t="n">
-        <v>183.3625589592966</v>
+        <v>183.3625589592965</v>
       </c>
       <c r="L19" t="n">
         <v>290.7282536281429</v>
@@ -36060,7 +36060,7 @@
         <v>211.3418459351616</v>
       </c>
       <c r="Q19" t="n">
-        <v>62.04428067493224</v>
+        <v>62.04428067493221</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>322.9390992205155</v>
       </c>
       <c r="K20" t="n">
-        <v>605.9664451411234</v>
+        <v>281.8210325699585</v>
       </c>
       <c r="L20" t="n">
         <v>804.559632701063</v>
       </c>
       <c r="M20" t="n">
-        <v>462.488368288419</v>
+        <v>912.0019017812514</v>
       </c>
       <c r="N20" t="n">
-        <v>580.4825618771013</v>
+        <v>911.979250519884</v>
       </c>
       <c r="O20" t="n">
-        <v>815.512066962225</v>
+        <v>815.5120669622249</v>
       </c>
       <c r="P20" t="n">
-        <v>657.9657493839343</v>
+        <v>479.1323503523725</v>
       </c>
       <c r="Q20" t="n">
-        <v>416.1030985938748</v>
+        <v>203.7881079339701</v>
       </c>
       <c r="R20" t="n">
-        <v>97.98646448371531</v>
+        <v>32.27004461073284</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>196.6294020834738</v>
+        <v>198.7106386939511</v>
       </c>
       <c r="K21" t="n">
         <v>203.06273621036</v>
@@ -36215,13 +36215,13 @@
         <v>359.6996729645093</v>
       </c>
       <c r="P21" t="n">
-        <v>269.1623494966701</v>
+        <v>477.1584006220422</v>
       </c>
       <c r="Q21" t="n">
-        <v>339.5817595301563</v>
+        <v>129.5044717943072</v>
       </c>
       <c r="R21" t="n">
-        <v>30.9185572946471</v>
+        <v>30.91855729464707</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>31.77387613969191</v>
+        <v>31.77387613969189</v>
       </c>
       <c r="K22" t="n">
-        <v>183.3625589592966</v>
+        <v>183.3625589592965</v>
       </c>
       <c r="L22" t="n">
         <v>290.7282536281429</v>
@@ -36297,7 +36297,7 @@
         <v>211.3418459351616</v>
       </c>
       <c r="Q22" t="n">
-        <v>62.04428067493224</v>
+        <v>62.04428067493221</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>322.9390992205155</v>
       </c>
       <c r="K23" t="n">
-        <v>605.9664451411234</v>
+        <v>605.9664451411232</v>
       </c>
       <c r="L23" t="n">
-        <v>804.559632701063</v>
+        <v>386.8984181506126</v>
       </c>
       <c r="M23" t="n">
-        <v>462.488368288419</v>
+        <v>912.0019017812514</v>
       </c>
       <c r="N23" t="n">
-        <v>580.4825618771013</v>
+        <v>911.979250519884</v>
       </c>
       <c r="O23" t="n">
-        <v>815.512066962225</v>
+        <v>452.163059377061</v>
       </c>
       <c r="P23" t="n">
         <v>657.9657493839343</v>
       </c>
       <c r="Q23" t="n">
-        <v>416.1030985938748</v>
+        <v>416.1030985938747</v>
       </c>
       <c r="R23" t="n">
-        <v>97.98646448371531</v>
+        <v>97.98646448371528</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>196.6294020834738</v>
+        <v>198.7106386939511</v>
       </c>
       <c r="K24" t="n">
-        <v>203.06273621036</v>
+        <v>231.9000568945297</v>
       </c>
       <c r="L24" t="n">
         <v>319.8333539442075</v>
@@ -36452,13 +36452,13 @@
         <v>359.6996729645093</v>
       </c>
       <c r="P24" t="n">
-        <v>269.1623494966701</v>
+        <v>269.16234949667</v>
       </c>
       <c r="Q24" t="n">
         <v>339.5817595301563</v>
       </c>
       <c r="R24" t="n">
-        <v>30.9185572946471</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>31.77387613969191</v>
+        <v>31.77387613969189</v>
       </c>
       <c r="K25" t="n">
-        <v>183.3625589592966</v>
+        <v>183.3625589592965</v>
       </c>
       <c r="L25" t="n">
         <v>290.7282536281429</v>
@@ -36534,7 +36534,7 @@
         <v>211.3418459351616</v>
       </c>
       <c r="Q25" t="n">
-        <v>62.04428067493224</v>
+        <v>62.04428067493221</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>322.9390992205155</v>
       </c>
       <c r="K26" t="n">
-        <v>605.9664451411234</v>
+        <v>605.9664451411232</v>
       </c>
       <c r="L26" t="n">
         <v>804.559632701063</v>
       </c>
       <c r="M26" t="n">
-        <v>462.488368288419</v>
+        <v>568.3386040576219</v>
       </c>
       <c r="N26" t="n">
-        <v>580.4825618771013</v>
+        <v>474.6323261078998</v>
       </c>
       <c r="O26" t="n">
-        <v>815.512066962225</v>
+        <v>815.5120669622249</v>
       </c>
       <c r="P26" t="n">
         <v>657.9657493839343</v>
       </c>
       <c r="Q26" t="n">
-        <v>416.1030985938748</v>
+        <v>416.1030985938747</v>
       </c>
       <c r="R26" t="n">
-        <v>97.98646448371531</v>
+        <v>97.98646448371528</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>198.7106386939511</v>
       </c>
       <c r="K27" t="n">
-        <v>411.0587873357318</v>
+        <v>231.9000568945297</v>
       </c>
       <c r="L27" t="n">
         <v>319.8333539442075</v>
@@ -36689,13 +36689,13 @@
         <v>359.6996729645093</v>
       </c>
       <c r="P27" t="n">
-        <v>269.1623494966701</v>
+        <v>269.16234949667</v>
       </c>
       <c r="Q27" t="n">
-        <v>129.5044717943072</v>
+        <v>339.5817595301563</v>
       </c>
       <c r="R27" t="n">
-        <v>30.9185572946471</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>31.77387613969191</v>
+        <v>31.77387613969189</v>
       </c>
       <c r="K28" t="n">
-        <v>183.3625589592966</v>
+        <v>183.3625589592965</v>
       </c>
       <c r="L28" t="n">
         <v>290.7282536281429</v>
@@ -36771,7 +36771,7 @@
         <v>211.3418459351616</v>
       </c>
       <c r="Q28" t="n">
-        <v>62.04428067493224</v>
+        <v>62.04428067493221</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>322.9390992205155</v>
+        <v>187.8729978275547</v>
       </c>
       <c r="K29" t="n">
-        <v>605.9664451411234</v>
+        <v>281.8210325699585</v>
       </c>
       <c r="L29" t="n">
         <v>804.559632701063</v>
       </c>
       <c r="M29" t="n">
-        <v>462.488368288419</v>
+        <v>912.0019017812514</v>
       </c>
       <c r="N29" t="n">
-        <v>646.1989817500832</v>
+        <v>911.979250519884</v>
       </c>
       <c r="O29" t="n">
-        <v>815.512066962225</v>
+        <v>815.5120669622249</v>
       </c>
       <c r="P29" t="n">
-        <v>657.9657493839343</v>
+        <v>336.1670412124516</v>
       </c>
       <c r="Q29" t="n">
-        <v>416.1030985938748</v>
+        <v>416.1030985938747</v>
       </c>
       <c r="R29" t="n">
-        <v>32.27004461073287</v>
+        <v>97.98646448371528</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>72.61960335354226</v>
+        <v>198.7106386939511</v>
       </c>
       <c r="K30" t="n">
-        <v>203.06273621036</v>
+        <v>231.9000568945301</v>
       </c>
       <c r="L30" t="n">
-        <v>684.8389977046352</v>
+        <v>319.8333539442075</v>
       </c>
       <c r="M30" t="n">
         <v>392.7828305813691</v>
@@ -36926,10 +36926,10 @@
         <v>359.6996729645093</v>
       </c>
       <c r="P30" t="n">
-        <v>269.1623494966701</v>
+        <v>269.16234949667</v>
       </c>
       <c r="Q30" t="n">
-        <v>129.5044717943072</v>
+        <v>339.5817595301563</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>31.77387613969191</v>
+        <v>31.77387613969189</v>
       </c>
       <c r="K31" t="n">
-        <v>183.3625589592966</v>
+        <v>183.3625589592965</v>
       </c>
       <c r="L31" t="n">
         <v>290.7282536281429</v>
@@ -37008,7 +37008,7 @@
         <v>211.3418459351616</v>
       </c>
       <c r="Q31" t="n">
-        <v>62.04428067493224</v>
+        <v>62.04428067493221</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>322.9390992205155</v>
       </c>
       <c r="K32" t="n">
-        <v>605.9664451411234</v>
+        <v>605.9664451411232</v>
       </c>
       <c r="L32" t="n">
-        <v>804.559632701063</v>
+        <v>460.8963349774391</v>
       </c>
       <c r="M32" t="n">
-        <v>568.3386040576205</v>
+        <v>912.0019017812514</v>
       </c>
       <c r="N32" t="n">
-        <v>474.6323261078999</v>
+        <v>474.6323261078998</v>
       </c>
       <c r="O32" t="n">
-        <v>815.512066962225</v>
+        <v>815.5120669622249</v>
       </c>
       <c r="P32" t="n">
         <v>657.9657493839343</v>
       </c>
       <c r="Q32" t="n">
-        <v>416.1030985938748</v>
+        <v>416.1030985938747</v>
       </c>
       <c r="R32" t="n">
-        <v>97.98646448371531</v>
+        <v>97.98646448371528</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>198.7106386939511</v>
       </c>
       <c r="K33" t="n">
-        <v>203.06273621036</v>
+        <v>231.9000568945301</v>
       </c>
       <c r="L33" t="n">
         <v>319.8333539442075</v>
@@ -37163,13 +37163,13 @@
         <v>359.6996729645093</v>
       </c>
       <c r="P33" t="n">
-        <v>269.1623494966701</v>
+        <v>269.16234949667</v>
       </c>
       <c r="Q33" t="n">
-        <v>337.5005229196788</v>
+        <v>339.5817595301563</v>
       </c>
       <c r="R33" t="n">
-        <v>30.9185572946471</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>56.50598993706893</v>
+        <v>56.50598993706832</v>
       </c>
       <c r="K34" t="n">
-        <v>208.0946727566736</v>
+        <v>208.094672756673</v>
       </c>
       <c r="L34" t="n">
-        <v>315.4603674255199</v>
+        <v>315.4603674255193</v>
       </c>
       <c r="M34" t="n">
-        <v>341.7583578710211</v>
+        <v>341.7583578710205</v>
       </c>
       <c r="N34" t="n">
-        <v>339.709693912672</v>
+        <v>339.7096939126714</v>
       </c>
       <c r="O34" t="n">
-        <v>299.4868133552329</v>
+        <v>299.4868133552323</v>
       </c>
       <c r="P34" t="n">
-        <v>236.0739597325386</v>
+        <v>236.073959732538</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.77639447230926</v>
+        <v>86.77639447230864</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,28 +37306,28 @@
         <v>322.9390992205155</v>
       </c>
       <c r="K35" t="n">
-        <v>391.8362412425082</v>
+        <v>605.9664451411232</v>
       </c>
       <c r="L35" t="n">
-        <v>804.559632701063</v>
+        <v>386.8984181506126</v>
       </c>
       <c r="M35" t="n">
-        <v>462.488368288419</v>
+        <v>462.4883682884189</v>
       </c>
       <c r="N35" t="n">
-        <v>474.6323261078999</v>
+        <v>474.6323261078998</v>
       </c>
       <c r="O35" t="n">
-        <v>815.512066962225</v>
+        <v>815.5120669622249</v>
       </c>
       <c r="P35" t="n">
-        <v>336.1670412124516</v>
+        <v>393.0994810773661</v>
       </c>
       <c r="Q35" t="n">
-        <v>203.7881079339701</v>
+        <v>416.1030985938747</v>
       </c>
       <c r="R35" t="n">
-        <v>97.98646448371531</v>
+        <v>32.27004461073284</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>198.7106386939511</v>
       </c>
       <c r="K36" t="n">
-        <v>203.06273621036</v>
+        <v>231.90005689453</v>
       </c>
       <c r="L36" t="n">
         <v>319.8333539442075</v>
@@ -37400,13 +37400,13 @@
         <v>359.6996729645093</v>
       </c>
       <c r="P36" t="n">
-        <v>269.1623494966701</v>
+        <v>269.16234949667</v>
       </c>
       <c r="Q36" t="n">
         <v>339.5817595301563</v>
       </c>
       <c r="R36" t="n">
-        <v>28.83732068416975</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.58038714922992</v>
+        <v>87.58038714922988</v>
       </c>
       <c r="K37" t="n">
-        <v>239.1690699688346</v>
+        <v>239.1690699688345</v>
       </c>
       <c r="L37" t="n">
         <v>346.5347646376808</v>
@@ -37482,7 +37482,7 @@
         <v>267.1483569446996</v>
       </c>
       <c r="Q37" t="n">
-        <v>117.8507916844703</v>
+        <v>117.8507916844702</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>270.3878215738504</v>
+        <v>153.8424840484417</v>
       </c>
       <c r="K38" t="n">
-        <v>605.9664451411234</v>
+        <v>605.9664451411232</v>
       </c>
       <c r="L38" t="n">
         <v>386.8984181506126</v>
       </c>
       <c r="M38" t="n">
-        <v>462.488368288419</v>
+        <v>462.4883682884189</v>
       </c>
       <c r="N38" t="n">
-        <v>474.6323261078999</v>
+        <v>911.979250519884</v>
       </c>
       <c r="O38" t="n">
-        <v>815.512066962225</v>
+        <v>604.1941975872287</v>
       </c>
       <c r="P38" t="n">
-        <v>657.9657493839343</v>
+        <v>336.1670412124516</v>
       </c>
       <c r="Q38" t="n">
-        <v>203.7881079339701</v>
+        <v>416.1030985938747</v>
       </c>
       <c r="R38" t="n">
-        <v>32.27004461073287</v>
+        <v>32.27004461073284</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>72.61960335354226</v>
+        <v>198.7106386939511</v>
       </c>
       <c r="K39" t="n">
-        <v>357.9910922349387</v>
+        <v>231.90005689453</v>
       </c>
       <c r="L39" t="n">
         <v>319.8333539442075</v>
@@ -37637,7 +37637,7 @@
         <v>359.6996729645093</v>
       </c>
       <c r="P39" t="n">
-        <v>269.1623494966701</v>
+        <v>269.16234949667</v>
       </c>
       <c r="Q39" t="n">
         <v>339.5817595301563</v>
@@ -37698,19 +37698,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.58038714922991</v>
+        <v>87.58038714922986</v>
       </c>
       <c r="K40" t="n">
         <v>239.1690699688345</v>
       </c>
       <c r="L40" t="n">
-        <v>346.5347646376809</v>
+        <v>346.5347646376808</v>
       </c>
       <c r="M40" t="n">
         <v>372.8327550831821</v>
       </c>
       <c r="N40" t="n">
-        <v>370.784091124833</v>
+        <v>370.7840911248329</v>
       </c>
       <c r="O40" t="n">
         <v>330.5612105673939</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>322.9390992205155</v>
+        <v>153.8424840484417</v>
       </c>
       <c r="K41" t="n">
-        <v>605.9664451411231</v>
+        <v>281.8210325699586</v>
       </c>
       <c r="L41" t="n">
-        <v>386.8984181506125</v>
+        <v>699.874342925836</v>
       </c>
       <c r="M41" t="n">
-        <v>462.4883682884189</v>
+        <v>912.0019017812515</v>
       </c>
       <c r="N41" t="n">
-        <v>474.6323261078997</v>
+        <v>474.6323261078999</v>
       </c>
       <c r="O41" t="n">
-        <v>815.5120669622248</v>
+        <v>815.512066962225</v>
       </c>
       <c r="P41" t="n">
-        <v>539.698051864288</v>
+        <v>336.1670412124516</v>
       </c>
       <c r="Q41" t="n">
-        <v>203.78810793397</v>
+        <v>203.7881079339701</v>
       </c>
       <c r="R41" t="n">
-        <v>97.98646448371525</v>
+        <v>32.27004461073287</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>142.2414528067453</v>
+        <v>198.7106386939511</v>
       </c>
       <c r="K42" t="n">
-        <v>467.5279732229386</v>
+        <v>231.9000568945299</v>
       </c>
       <c r="L42" t="n">
-        <v>319.8333539442074</v>
+        <v>319.8333539442075</v>
       </c>
       <c r="M42" t="n">
-        <v>392.782830581369</v>
+        <v>392.7828305813691</v>
       </c>
       <c r="N42" t="n">
-        <v>417.7328101286516</v>
+        <v>417.7328101286517</v>
       </c>
       <c r="O42" t="n">
-        <v>359.6996729645092</v>
+        <v>359.6996729645093</v>
       </c>
       <c r="P42" t="n">
-        <v>269.1623494966699</v>
+        <v>269.1623494966701</v>
       </c>
       <c r="Q42" t="n">
-        <v>129.5044717943072</v>
+        <v>339.5817595301563</v>
       </c>
       <c r="R42" t="n">
-        <v>30.91855729464707</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.58038714922988</v>
+        <v>87.58038714922989</v>
       </c>
       <c r="K43" t="n">
         <v>239.1690699688345</v>
@@ -37944,7 +37944,7 @@
         <v>346.5347646376808</v>
       </c>
       <c r="M43" t="n">
-        <v>372.832755083182</v>
+        <v>372.8327550831821</v>
       </c>
       <c r="N43" t="n">
         <v>370.7840911248329</v>
@@ -38017,28 +38017,28 @@
         <v>322.9390992205155</v>
       </c>
       <c r="K44" t="n">
-        <v>304.2391435468485</v>
+        <v>605.9664451411232</v>
       </c>
       <c r="L44" t="n">
-        <v>804.559632701063</v>
+        <v>649.4309018937108</v>
       </c>
       <c r="M44" t="n">
-        <v>462.488368288419</v>
+        <v>462.4883682884189</v>
       </c>
       <c r="N44" t="n">
-        <v>474.6323261078999</v>
+        <v>474.6323261078998</v>
       </c>
       <c r="O44" t="n">
-        <v>434.7118856994797</v>
+        <v>434.7118856994796</v>
       </c>
       <c r="P44" t="n">
         <v>657.9657493839343</v>
       </c>
       <c r="Q44" t="n">
-        <v>416.1030985938748</v>
+        <v>203.7881079339701</v>
       </c>
       <c r="R44" t="n">
-        <v>32.27004461073287</v>
+        <v>97.98646448371528</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>198.7106386939511</v>
+        <v>72.61960335354223</v>
       </c>
       <c r="K45" t="n">
         <v>203.06273621036</v>
@@ -38111,13 +38111,13 @@
         <v>359.6996729645093</v>
       </c>
       <c r="P45" t="n">
-        <v>269.1623494966701</v>
+        <v>424.0907055212487</v>
       </c>
       <c r="Q45" t="n">
-        <v>337.5005229196792</v>
+        <v>339.5817595301563</v>
       </c>
       <c r="R45" t="n">
-        <v>30.9185572946471</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.58038714922991</v>
+        <v>87.58038714922995</v>
       </c>
       <c r="K46" t="n">
-        <v>239.1690699688345</v>
+        <v>239.1690699688346</v>
       </c>
       <c r="L46" t="n">
-        <v>346.5347646376809</v>
+        <v>346.5347646376808</v>
       </c>
       <c r="M46" t="n">
         <v>372.8327550831821</v>
@@ -38193,7 +38193,7 @@
         <v>267.1483569446996</v>
       </c>
       <c r="Q46" t="n">
-        <v>117.8507916844702</v>
+        <v>117.8507916844703</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
